--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/NCKH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64CBD18-BC70-844E-9CCA-05B99422C6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD542B61-799C-4A4F-84B4-50703A00DF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="760" windowWidth="27300" windowHeight="17240" xr2:uid="{B41B1CF2-8377-4540-B161-83C55D783F6A}"/>
+    <workbookView xWindow="4700" yWindow="640" windowWidth="22600" windowHeight="17240" xr2:uid="{B41B1CF2-8377-4540-B161-83C55D783F6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Tổng hợp " sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TRƯỜNG ĐẠI HỌC BẠC LIÊU</t>
   </si>
@@ -146,9 +146,6 @@
 vượt</t>
   </si>
   <si>
-    <t>Kiểm tra</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Số Giờ vượt</t>
   </si>
   <si>
@@ -159,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +215,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -372,41 +362,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -415,6 +402,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2F960C-6F4D-484B-AD43-AB1572757181}">
-  <dimension ref="A1:Z723"/>
+  <dimension ref="A1:Y723"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -784,12 +774,11 @@
     <col min="14" max="14" width="8.5" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="8.83203125" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="17.5" customWidth="1"/>
-    <col min="19" max="26" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -817,9 +806,8 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -847,9 +835,8 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="1:26" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -877,9 +864,8 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -907,9 +893,8 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -935,9 +920,8 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:25" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -953,13 +937,13 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="26" t="s">
-        <v>22</v>
+      <c r="N6" s="29" t="s">
+        <v>21</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="14"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -967,9 +951,8 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:25" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1018,12 +1001,10 @@
       <c r="P7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="25" t="s">
-        <v>21</v>
+      <c r="Q7" s="20" t="s">
+        <v>22</v>
       </c>
-      <c r="R7" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -1031,29 +1012,27 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
@@ -1071,9 +1050,8 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -1091,9 +1069,8 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -1111,9 +1088,8 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -1131,9 +1107,8 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -1151,9 +1126,8 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -1171,9 +1145,8 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -1191,9 +1164,8 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -1211,9 +1183,8 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -1231,9 +1202,8 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -1251,9 +1221,8 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -1271,9 +1240,8 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -1291,9 +1259,8 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -1311,9 +1278,8 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1339,9 +1305,8 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1367,9 +1332,8 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1395,9 +1359,8 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1423,9 +1386,8 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1451,9 +1413,8 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1479,9 +1440,8 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1507,9 +1467,8 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1535,9 +1494,8 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1563,9 +1521,8 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1591,9 +1548,8 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1619,9 +1575,8 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1647,9 +1602,8 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1675,9 +1629,8 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1703,9 +1656,8 @@
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1731,9 +1683,8 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1759,9 +1710,8 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1787,9 +1737,8 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1815,9 +1764,8 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1843,9 +1791,8 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1871,9 +1818,8 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-    </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1899,9 +1845,8 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1927,9 +1872,8 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1955,9 +1899,8 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1983,9 +1926,8 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-    </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2011,9 +1953,8 @@
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2039,9 +1980,8 @@
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-    </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2067,9 +2007,8 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-    </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2095,9 +2034,8 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-    </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2123,9 +2061,8 @@
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-    </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2151,9 +2088,8 @@
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-    </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2179,9 +2115,8 @@
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-    </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2207,9 +2142,8 @@
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-    </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2235,9 +2169,8 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-    </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2263,9 +2196,8 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-    </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2291,9 +2223,8 @@
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2319,9 +2250,8 @@
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2347,9 +2277,8 @@
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2375,9 +2304,8 @@
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2403,9 +2331,8 @@
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2431,9 +2358,8 @@
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2459,9 +2385,8 @@
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2487,9 +2412,8 @@
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-    </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2515,9 +2439,8 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-    </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2543,9 +2466,8 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2571,9 +2493,8 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2599,9 +2520,8 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2627,9 +2547,8 @@
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2655,9 +2574,8 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2683,9 +2601,8 @@
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-    </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2711,9 +2628,8 @@
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2739,9 +2655,8 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-    </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2767,9 +2682,8 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-    </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2795,9 +2709,8 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2823,9 +2736,8 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-    </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2851,9 +2763,8 @@
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-    </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2879,9 +2790,8 @@
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2907,9 +2817,8 @@
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-    </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2935,9 +2844,8 @@
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2963,9 +2871,8 @@
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2991,9 +2898,8 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3019,9 +2925,8 @@
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-    </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3047,9 +2952,8 @@
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3075,9 +2979,8 @@
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-    </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3103,9 +3006,8 @@
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-    </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3131,9 +3033,8 @@
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3159,9 +3060,8 @@
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-    </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3187,9 +3087,8 @@
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-    </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3215,9 +3114,8 @@
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-    </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3243,9 +3141,8 @@
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-    </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3271,9 +3168,8 @@
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-    </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3299,9 +3195,8 @@
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-    </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3327,9 +3222,8 @@
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-    </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3355,9 +3249,8 @@
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-    </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3383,9 +3276,8 @@
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-    </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3411,9 +3303,8 @@
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-    </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3439,9 +3330,8 @@
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3467,9 +3357,8 @@
       <c r="W98" s="5"/>
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
-    </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3495,9 +3384,8 @@
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
-    </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3523,9 +3411,8 @@
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
-    </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3551,9 +3438,8 @@
       <c r="W101" s="5"/>
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-    </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3579,9 +3465,8 @@
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
-      <c r="Z102" s="5"/>
-    </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3607,9 +3492,8 @@
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
-      <c r="Z103" s="5"/>
-    </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3635,9 +3519,8 @@
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
-      <c r="Z104" s="5"/>
-    </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3663,9 +3546,8 @@
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
-      <c r="Z105" s="5"/>
-    </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3691,9 +3573,8 @@
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
-      <c r="Z106" s="5"/>
-    </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3719,9 +3600,8 @@
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
-      <c r="Z107" s="5"/>
-    </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3747,9 +3627,8 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
-      <c r="Z108" s="5"/>
-    </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3775,9 +3654,8 @@
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
-      <c r="Z109" s="5"/>
-    </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3803,9 +3681,8 @@
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
-      <c r="Z110" s="5"/>
-    </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3831,9 +3708,8 @@
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
-      <c r="Z111" s="5"/>
-    </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3859,9 +3735,8 @@
       <c r="W112" s="5"/>
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
-      <c r="Z112" s="5"/>
-    </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3887,9 +3762,8 @@
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-    </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3915,9 +3789,8 @@
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-    </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3943,9 +3816,8 @@
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
-      <c r="Z115" s="5"/>
-    </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3971,9 +3843,8 @@
       <c r="W116" s="5"/>
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
-      <c r="Z116" s="5"/>
-    </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3999,9 +3870,8 @@
       <c r="W117" s="5"/>
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
-      <c r="Z117" s="5"/>
-    </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4027,9 +3897,8 @@
       <c r="W118" s="5"/>
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
-      <c r="Z118" s="5"/>
-    </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4055,9 +3924,8 @@
       <c r="W119" s="5"/>
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
-      <c r="Z119" s="5"/>
-    </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4083,9 +3951,8 @@
       <c r="W120" s="5"/>
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
-      <c r="Z120" s="5"/>
-    </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4111,9 +3978,8 @@
       <c r="W121" s="5"/>
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
-      <c r="Z121" s="5"/>
-    </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4139,9 +4005,8 @@
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
-      <c r="Z122" s="5"/>
-    </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4167,9 +4032,8 @@
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
-      <c r="Z123" s="5"/>
-    </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4195,9 +4059,8 @@
       <c r="W124" s="5"/>
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
-      <c r="Z124" s="5"/>
-    </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4223,9 +4086,8 @@
       <c r="W125" s="5"/>
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
-      <c r="Z125" s="5"/>
-    </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4251,9 +4113,8 @@
       <c r="W126" s="5"/>
       <c r="X126" s="5"/>
       <c r="Y126" s="5"/>
-      <c r="Z126" s="5"/>
-    </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4279,9 +4140,8 @@
       <c r="W127" s="5"/>
       <c r="X127" s="5"/>
       <c r="Y127" s="5"/>
-      <c r="Z127" s="5"/>
-    </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4307,9 +4167,8 @@
       <c r="W128" s="5"/>
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
-      <c r="Z128" s="5"/>
-    </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4335,9 +4194,8 @@
       <c r="W129" s="5"/>
       <c r="X129" s="5"/>
       <c r="Y129" s="5"/>
-      <c r="Z129" s="5"/>
-    </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4363,9 +4221,8 @@
       <c r="W130" s="5"/>
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
-      <c r="Z130" s="5"/>
-    </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4391,9 +4248,8 @@
       <c r="W131" s="5"/>
       <c r="X131" s="5"/>
       <c r="Y131" s="5"/>
-      <c r="Z131" s="5"/>
-    </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4419,9 +4275,8 @@
       <c r="W132" s="5"/>
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
-      <c r="Z132" s="5"/>
-    </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4447,9 +4302,8 @@
       <c r="W133" s="5"/>
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
-      <c r="Z133" s="5"/>
-    </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4475,9 +4329,8 @@
       <c r="W134" s="5"/>
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
-      <c r="Z134" s="5"/>
-    </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4503,9 +4356,8 @@
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
       <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
-    </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4531,9 +4383,8 @@
       <c r="W136" s="5"/>
       <c r="X136" s="5"/>
       <c r="Y136" s="5"/>
-      <c r="Z136" s="5"/>
-    </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4559,9 +4410,8 @@
       <c r="W137" s="5"/>
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
-      <c r="Z137" s="5"/>
-    </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4587,9 +4437,8 @@
       <c r="W138" s="5"/>
       <c r="X138" s="5"/>
       <c r="Y138" s="5"/>
-      <c r="Z138" s="5"/>
-    </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4615,9 +4464,8 @@
       <c r="W139" s="5"/>
       <c r="X139" s="5"/>
       <c r="Y139" s="5"/>
-      <c r="Z139" s="5"/>
-    </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4643,9 +4491,8 @@
       <c r="W140" s="5"/>
       <c r="X140" s="5"/>
       <c r="Y140" s="5"/>
-      <c r="Z140" s="5"/>
-    </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4671,9 +4518,8 @@
       <c r="W141" s="5"/>
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
-    </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4699,9 +4545,8 @@
       <c r="W142" s="5"/>
       <c r="X142" s="5"/>
       <c r="Y142" s="5"/>
-      <c r="Z142" s="5"/>
-    </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4727,9 +4572,8 @@
       <c r="W143" s="5"/>
       <c r="X143" s="5"/>
       <c r="Y143" s="5"/>
-      <c r="Z143" s="5"/>
-    </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4755,9 +4599,8 @@
       <c r="W144" s="5"/>
       <c r="X144" s="5"/>
       <c r="Y144" s="5"/>
-      <c r="Z144" s="5"/>
-    </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4783,9 +4626,8 @@
       <c r="W145" s="5"/>
       <c r="X145" s="5"/>
       <c r="Y145" s="5"/>
-      <c r="Z145" s="5"/>
-    </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4811,9 +4653,8 @@
       <c r="W146" s="5"/>
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
-      <c r="Z146" s="5"/>
-    </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4839,9 +4680,8 @@
       <c r="W147" s="5"/>
       <c r="X147" s="5"/>
       <c r="Y147" s="5"/>
-      <c r="Z147" s="5"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4867,9 +4707,8 @@
       <c r="W148" s="5"/>
       <c r="X148" s="5"/>
       <c r="Y148" s="5"/>
-      <c r="Z148" s="5"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4895,9 +4734,8 @@
       <c r="W149" s="5"/>
       <c r="X149" s="5"/>
       <c r="Y149" s="5"/>
-      <c r="Z149" s="5"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4923,9 +4761,8 @@
       <c r="W150" s="5"/>
       <c r="X150" s="5"/>
       <c r="Y150" s="5"/>
-      <c r="Z150" s="5"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4951,9 +4788,8 @@
       <c r="W151" s="5"/>
       <c r="X151" s="5"/>
       <c r="Y151" s="5"/>
-      <c r="Z151" s="5"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4979,9 +4815,8 @@
       <c r="W152" s="5"/>
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
-      <c r="Z152" s="5"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5007,9 +4842,8 @@
       <c r="W153" s="5"/>
       <c r="X153" s="5"/>
       <c r="Y153" s="5"/>
-      <c r="Z153" s="5"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5035,9 +4869,8 @@
       <c r="W154" s="5"/>
       <c r="X154" s="5"/>
       <c r="Y154" s="5"/>
-      <c r="Z154" s="5"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5063,9 +4896,8 @@
       <c r="W155" s="5"/>
       <c r="X155" s="5"/>
       <c r="Y155" s="5"/>
-      <c r="Z155" s="5"/>
-    </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5091,9 +4923,8 @@
       <c r="W156" s="5"/>
       <c r="X156" s="5"/>
       <c r="Y156" s="5"/>
-      <c r="Z156" s="5"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5119,9 +4950,8 @@
       <c r="W157" s="5"/>
       <c r="X157" s="5"/>
       <c r="Y157" s="5"/>
-      <c r="Z157" s="5"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5147,9 +4977,8 @@
       <c r="W158" s="5"/>
       <c r="X158" s="5"/>
       <c r="Y158" s="5"/>
-      <c r="Z158" s="5"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5175,9 +5004,8 @@
       <c r="W159" s="5"/>
       <c r="X159" s="5"/>
       <c r="Y159" s="5"/>
-      <c r="Z159" s="5"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5203,9 +5031,8 @@
       <c r="W160" s="5"/>
       <c r="X160" s="5"/>
       <c r="Y160" s="5"/>
-      <c r="Z160" s="5"/>
-    </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5231,9 +5058,8 @@
       <c r="W161" s="5"/>
       <c r="X161" s="5"/>
       <c r="Y161" s="5"/>
-      <c r="Z161" s="5"/>
-    </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5259,9 +5085,8 @@
       <c r="W162" s="5"/>
       <c r="X162" s="5"/>
       <c r="Y162" s="5"/>
-      <c r="Z162" s="5"/>
-    </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5287,9 +5112,8 @@
       <c r="W163" s="5"/>
       <c r="X163" s="5"/>
       <c r="Y163" s="5"/>
-      <c r="Z163" s="5"/>
-    </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5315,9 +5139,8 @@
       <c r="W164" s="5"/>
       <c r="X164" s="5"/>
       <c r="Y164" s="5"/>
-      <c r="Z164" s="5"/>
-    </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5343,9 +5166,8 @@
       <c r="W165" s="5"/>
       <c r="X165" s="5"/>
       <c r="Y165" s="5"/>
-      <c r="Z165" s="5"/>
-    </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5371,9 +5193,8 @@
       <c r="W166" s="5"/>
       <c r="X166" s="5"/>
       <c r="Y166" s="5"/>
-      <c r="Z166" s="5"/>
-    </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5399,9 +5220,8 @@
       <c r="W167" s="5"/>
       <c r="X167" s="5"/>
       <c r="Y167" s="5"/>
-      <c r="Z167" s="5"/>
-    </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5427,9 +5247,8 @@
       <c r="W168" s="5"/>
       <c r="X168" s="5"/>
       <c r="Y168" s="5"/>
-      <c r="Z168" s="5"/>
-    </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5455,9 +5274,8 @@
       <c r="W169" s="5"/>
       <c r="X169" s="5"/>
       <c r="Y169" s="5"/>
-      <c r="Z169" s="5"/>
-    </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5483,9 +5301,8 @@
       <c r="W170" s="5"/>
       <c r="X170" s="5"/>
       <c r="Y170" s="5"/>
-      <c r="Z170" s="5"/>
-    </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5511,9 +5328,8 @@
       <c r="W171" s="5"/>
       <c r="X171" s="5"/>
       <c r="Y171" s="5"/>
-      <c r="Z171" s="5"/>
-    </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5539,9 +5355,8 @@
       <c r="W172" s="5"/>
       <c r="X172" s="5"/>
       <c r="Y172" s="5"/>
-      <c r="Z172" s="5"/>
-    </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5567,9 +5382,8 @@
       <c r="W173" s="5"/>
       <c r="X173" s="5"/>
       <c r="Y173" s="5"/>
-      <c r="Z173" s="5"/>
-    </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5595,9 +5409,8 @@
       <c r="W174" s="5"/>
       <c r="X174" s="5"/>
       <c r="Y174" s="5"/>
-      <c r="Z174" s="5"/>
-    </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5623,9 +5436,8 @@
       <c r="W175" s="5"/>
       <c r="X175" s="5"/>
       <c r="Y175" s="5"/>
-      <c r="Z175" s="5"/>
-    </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5651,9 +5463,8 @@
       <c r="W176" s="5"/>
       <c r="X176" s="5"/>
       <c r="Y176" s="5"/>
-      <c r="Z176" s="5"/>
-    </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5679,9 +5490,8 @@
       <c r="W177" s="5"/>
       <c r="X177" s="5"/>
       <c r="Y177" s="5"/>
-      <c r="Z177" s="5"/>
-    </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5707,9 +5517,8 @@
       <c r="W178" s="5"/>
       <c r="X178" s="5"/>
       <c r="Y178" s="5"/>
-      <c r="Z178" s="5"/>
-    </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5735,9 +5544,8 @@
       <c r="W179" s="5"/>
       <c r="X179" s="5"/>
       <c r="Y179" s="5"/>
-      <c r="Z179" s="5"/>
-    </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5763,9 +5571,8 @@
       <c r="W180" s="5"/>
       <c r="X180" s="5"/>
       <c r="Y180" s="5"/>
-      <c r="Z180" s="5"/>
-    </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5791,9 +5598,8 @@
       <c r="W181" s="5"/>
       <c r="X181" s="5"/>
       <c r="Y181" s="5"/>
-      <c r="Z181" s="5"/>
-    </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5819,9 +5625,8 @@
       <c r="W182" s="5"/>
       <c r="X182" s="5"/>
       <c r="Y182" s="5"/>
-      <c r="Z182" s="5"/>
-    </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5847,9 +5652,8 @@
       <c r="W183" s="5"/>
       <c r="X183" s="5"/>
       <c r="Y183" s="5"/>
-      <c r="Z183" s="5"/>
-    </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5875,9 +5679,8 @@
       <c r="W184" s="5"/>
       <c r="X184" s="5"/>
       <c r="Y184" s="5"/>
-      <c r="Z184" s="5"/>
-    </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5903,9 +5706,8 @@
       <c r="W185" s="5"/>
       <c r="X185" s="5"/>
       <c r="Y185" s="5"/>
-      <c r="Z185" s="5"/>
-    </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5931,9 +5733,8 @@
       <c r="W186" s="5"/>
       <c r="X186" s="5"/>
       <c r="Y186" s="5"/>
-      <c r="Z186" s="5"/>
-    </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5959,9 +5760,8 @@
       <c r="W187" s="5"/>
       <c r="X187" s="5"/>
       <c r="Y187" s="5"/>
-      <c r="Z187" s="5"/>
-    </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5987,9 +5787,8 @@
       <c r="W188" s="5"/>
       <c r="X188" s="5"/>
       <c r="Y188" s="5"/>
-      <c r="Z188" s="5"/>
-    </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6015,9 +5814,8 @@
       <c r="W189" s="5"/>
       <c r="X189" s="5"/>
       <c r="Y189" s="5"/>
-      <c r="Z189" s="5"/>
-    </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6043,9 +5841,8 @@
       <c r="W190" s="5"/>
       <c r="X190" s="5"/>
       <c r="Y190" s="5"/>
-      <c r="Z190" s="5"/>
-    </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6071,9 +5868,8 @@
       <c r="W191" s="5"/>
       <c r="X191" s="5"/>
       <c r="Y191" s="5"/>
-      <c r="Z191" s="5"/>
-    </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6099,9 +5895,8 @@
       <c r="W192" s="5"/>
       <c r="X192" s="5"/>
       <c r="Y192" s="5"/>
-      <c r="Z192" s="5"/>
-    </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6127,9 +5922,8 @@
       <c r="W193" s="5"/>
       <c r="X193" s="5"/>
       <c r="Y193" s="5"/>
-      <c r="Z193" s="5"/>
-    </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6155,9 +5949,8 @@
       <c r="W194" s="5"/>
       <c r="X194" s="5"/>
       <c r="Y194" s="5"/>
-      <c r="Z194" s="5"/>
-    </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6183,9 +5976,8 @@
       <c r="W195" s="5"/>
       <c r="X195" s="5"/>
       <c r="Y195" s="5"/>
-      <c r="Z195" s="5"/>
-    </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6211,9 +6003,8 @@
       <c r="W196" s="5"/>
       <c r="X196" s="5"/>
       <c r="Y196" s="5"/>
-      <c r="Z196" s="5"/>
-    </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6239,9 +6030,8 @@
       <c r="W197" s="5"/>
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
-      <c r="Z197" s="5"/>
-    </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6267,9 +6057,8 @@
       <c r="W198" s="5"/>
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
-      <c r="Z198" s="5"/>
-    </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6295,9 +6084,8 @@
       <c r="W199" s="5"/>
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
-      <c r="Z199" s="5"/>
-    </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6323,9 +6111,8 @@
       <c r="W200" s="5"/>
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
-      <c r="Z200" s="5"/>
-    </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6351,9 +6138,8 @@
       <c r="W201" s="5"/>
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
-      <c r="Z201" s="5"/>
-    </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6379,9 +6165,8 @@
       <c r="W202" s="5"/>
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
-      <c r="Z202" s="5"/>
-    </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6407,9 +6192,8 @@
       <c r="W203" s="5"/>
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
-      <c r="Z203" s="5"/>
-    </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6435,9 +6219,8 @@
       <c r="W204" s="5"/>
       <c r="X204" s="5"/>
       <c r="Y204" s="5"/>
-      <c r="Z204" s="5"/>
-    </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6463,9 +6246,8 @@
       <c r="W205" s="5"/>
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
-      <c r="Z205" s="5"/>
-    </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6491,9 +6273,8 @@
       <c r="W206" s="5"/>
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
-      <c r="Z206" s="5"/>
-    </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6519,9 +6300,8 @@
       <c r="W207" s="5"/>
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
-      <c r="Z207" s="5"/>
-    </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6547,9 +6327,8 @@
       <c r="W208" s="5"/>
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
-      <c r="Z208" s="5"/>
-    </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6575,9 +6354,8 @@
       <c r="W209" s="5"/>
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
-      <c r="Z209" s="5"/>
-    </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6603,9 +6381,8 @@
       <c r="W210" s="5"/>
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
-      <c r="Z210" s="5"/>
-    </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6631,9 +6408,8 @@
       <c r="W211" s="5"/>
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
-      <c r="Z211" s="5"/>
-    </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6659,9 +6435,8 @@
       <c r="W212" s="5"/>
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
-      <c r="Z212" s="5"/>
-    </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6687,9 +6462,8 @@
       <c r="W213" s="5"/>
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
-      <c r="Z213" s="5"/>
-    </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6715,9 +6489,8 @@
       <c r="W214" s="5"/>
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
-      <c r="Z214" s="5"/>
-    </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6743,9 +6516,8 @@
       <c r="W215" s="5"/>
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
-      <c r="Z215" s="5"/>
-    </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6771,9 +6543,8 @@
       <c r="W216" s="5"/>
       <c r="X216" s="5"/>
       <c r="Y216" s="5"/>
-      <c r="Z216" s="5"/>
-    </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6799,9 +6570,8 @@
       <c r="W217" s="5"/>
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
-      <c r="Z217" s="5"/>
-    </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6827,9 +6597,8 @@
       <c r="W218" s="5"/>
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
-      <c r="Z218" s="5"/>
-    </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6855,9 +6624,8 @@
       <c r="W219" s="5"/>
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
-      <c r="Z219" s="5"/>
-    </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6883,9 +6651,8 @@
       <c r="W220" s="5"/>
       <c r="X220" s="5"/>
       <c r="Y220" s="5"/>
-      <c r="Z220" s="5"/>
-    </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6911,9 +6678,8 @@
       <c r="W221" s="5"/>
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
-      <c r="Z221" s="5"/>
-    </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6939,9 +6705,8 @@
       <c r="W222" s="5"/>
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
-      <c r="Z222" s="5"/>
-    </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6967,9 +6732,8 @@
       <c r="W223" s="5"/>
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
-      <c r="Z223" s="5"/>
-    </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6995,9 +6759,8 @@
       <c r="W224" s="5"/>
       <c r="X224" s="5"/>
       <c r="Y224" s="5"/>
-      <c r="Z224" s="5"/>
-    </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7023,9 +6786,8 @@
       <c r="W225" s="5"/>
       <c r="X225" s="5"/>
       <c r="Y225" s="5"/>
-      <c r="Z225" s="5"/>
-    </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7051,9 +6813,8 @@
       <c r="W226" s="5"/>
       <c r="X226" s="5"/>
       <c r="Y226" s="5"/>
-      <c r="Z226" s="5"/>
-    </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7079,9 +6840,8 @@
       <c r="W227" s="5"/>
       <c r="X227" s="5"/>
       <c r="Y227" s="5"/>
-      <c r="Z227" s="5"/>
-    </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7107,9 +6867,8 @@
       <c r="W228" s="5"/>
       <c r="X228" s="5"/>
       <c r="Y228" s="5"/>
-      <c r="Z228" s="5"/>
-    </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7135,9 +6894,8 @@
       <c r="W229" s="5"/>
       <c r="X229" s="5"/>
       <c r="Y229" s="5"/>
-      <c r="Z229" s="5"/>
-    </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7163,9 +6921,8 @@
       <c r="W230" s="5"/>
       <c r="X230" s="5"/>
       <c r="Y230" s="5"/>
-      <c r="Z230" s="5"/>
-    </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7191,9 +6948,8 @@
       <c r="W231" s="5"/>
       <c r="X231" s="5"/>
       <c r="Y231" s="5"/>
-      <c r="Z231" s="5"/>
-    </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7219,9 +6975,8 @@
       <c r="W232" s="5"/>
       <c r="X232" s="5"/>
       <c r="Y232" s="5"/>
-      <c r="Z232" s="5"/>
-    </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7247,9 +7002,8 @@
       <c r="W233" s="5"/>
       <c r="X233" s="5"/>
       <c r="Y233" s="5"/>
-      <c r="Z233" s="5"/>
-    </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7275,9 +7029,8 @@
       <c r="W234" s="5"/>
       <c r="X234" s="5"/>
       <c r="Y234" s="5"/>
-      <c r="Z234" s="5"/>
-    </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7303,9 +7056,8 @@
       <c r="W235" s="5"/>
       <c r="X235" s="5"/>
       <c r="Y235" s="5"/>
-      <c r="Z235" s="5"/>
-    </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7331,9 +7083,8 @@
       <c r="W236" s="5"/>
       <c r="X236" s="5"/>
       <c r="Y236" s="5"/>
-      <c r="Z236" s="5"/>
-    </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7359,9 +7110,8 @@
       <c r="W237" s="5"/>
       <c r="X237" s="5"/>
       <c r="Y237" s="5"/>
-      <c r="Z237" s="5"/>
-    </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7387,9 +7137,8 @@
       <c r="W238" s="5"/>
       <c r="X238" s="5"/>
       <c r="Y238" s="5"/>
-      <c r="Z238" s="5"/>
-    </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7415,9 +7164,8 @@
       <c r="W239" s="5"/>
       <c r="X239" s="5"/>
       <c r="Y239" s="5"/>
-      <c r="Z239" s="5"/>
-    </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7443,9 +7191,8 @@
       <c r="W240" s="5"/>
       <c r="X240" s="5"/>
       <c r="Y240" s="5"/>
-      <c r="Z240" s="5"/>
-    </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7471,9 +7218,8 @@
       <c r="W241" s="5"/>
       <c r="X241" s="5"/>
       <c r="Y241" s="5"/>
-      <c r="Z241" s="5"/>
-    </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7499,9 +7245,8 @@
       <c r="W242" s="5"/>
       <c r="X242" s="5"/>
       <c r="Y242" s="5"/>
-      <c r="Z242" s="5"/>
-    </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7527,9 +7272,8 @@
       <c r="W243" s="5"/>
       <c r="X243" s="5"/>
       <c r="Y243" s="5"/>
-      <c r="Z243" s="5"/>
-    </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7555,9 +7299,8 @@
       <c r="W244" s="5"/>
       <c r="X244" s="5"/>
       <c r="Y244" s="5"/>
-      <c r="Z244" s="5"/>
-    </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7583,9 +7326,8 @@
       <c r="W245" s="5"/>
       <c r="X245" s="5"/>
       <c r="Y245" s="5"/>
-      <c r="Z245" s="5"/>
-    </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7611,9 +7353,8 @@
       <c r="W246" s="5"/>
       <c r="X246" s="5"/>
       <c r="Y246" s="5"/>
-      <c r="Z246" s="5"/>
-    </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7639,9 +7380,8 @@
       <c r="W247" s="5"/>
       <c r="X247" s="5"/>
       <c r="Y247" s="5"/>
-      <c r="Z247" s="5"/>
-    </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7667,9 +7407,8 @@
       <c r="W248" s="5"/>
       <c r="X248" s="5"/>
       <c r="Y248" s="5"/>
-      <c r="Z248" s="5"/>
-    </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7695,9 +7434,8 @@
       <c r="W249" s="5"/>
       <c r="X249" s="5"/>
       <c r="Y249" s="5"/>
-      <c r="Z249" s="5"/>
-    </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7723,9 +7461,8 @@
       <c r="W250" s="5"/>
       <c r="X250" s="5"/>
       <c r="Y250" s="5"/>
-      <c r="Z250" s="5"/>
-    </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7751,9 +7488,8 @@
       <c r="W251" s="5"/>
       <c r="X251" s="5"/>
       <c r="Y251" s="5"/>
-      <c r="Z251" s="5"/>
-    </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7779,9 +7515,8 @@
       <c r="W252" s="5"/>
       <c r="X252" s="5"/>
       <c r="Y252" s="5"/>
-      <c r="Z252" s="5"/>
-    </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7807,9 +7542,8 @@
       <c r="W253" s="5"/>
       <c r="X253" s="5"/>
       <c r="Y253" s="5"/>
-      <c r="Z253" s="5"/>
-    </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7835,9 +7569,8 @@
       <c r="W254" s="5"/>
       <c r="X254" s="5"/>
       <c r="Y254" s="5"/>
-      <c r="Z254" s="5"/>
-    </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7863,9 +7596,8 @@
       <c r="W255" s="5"/>
       <c r="X255" s="5"/>
       <c r="Y255" s="5"/>
-      <c r="Z255" s="5"/>
-    </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7891,9 +7623,8 @@
       <c r="W256" s="5"/>
       <c r="X256" s="5"/>
       <c r="Y256" s="5"/>
-      <c r="Z256" s="5"/>
-    </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7919,9 +7650,8 @@
       <c r="W257" s="5"/>
       <c r="X257" s="5"/>
       <c r="Y257" s="5"/>
-      <c r="Z257" s="5"/>
-    </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7947,9 +7677,8 @@
       <c r="W258" s="5"/>
       <c r="X258" s="5"/>
       <c r="Y258" s="5"/>
-      <c r="Z258" s="5"/>
-    </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7975,9 +7704,8 @@
       <c r="W259" s="5"/>
       <c r="X259" s="5"/>
       <c r="Y259" s="5"/>
-      <c r="Z259" s="5"/>
-    </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8003,9 +7731,8 @@
       <c r="W260" s="5"/>
       <c r="X260" s="5"/>
       <c r="Y260" s="5"/>
-      <c r="Z260" s="5"/>
-    </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8031,9 +7758,8 @@
       <c r="W261" s="5"/>
       <c r="X261" s="5"/>
       <c r="Y261" s="5"/>
-      <c r="Z261" s="5"/>
-    </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -8059,9 +7785,8 @@
       <c r="W262" s="5"/>
       <c r="X262" s="5"/>
       <c r="Y262" s="5"/>
-      <c r="Z262" s="5"/>
-    </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -8087,9 +7812,8 @@
       <c r="W263" s="5"/>
       <c r="X263" s="5"/>
       <c r="Y263" s="5"/>
-      <c r="Z263" s="5"/>
-    </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8115,9 +7839,8 @@
       <c r="W264" s="5"/>
       <c r="X264" s="5"/>
       <c r="Y264" s="5"/>
-      <c r="Z264" s="5"/>
-    </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8143,9 +7866,8 @@
       <c r="W265" s="5"/>
       <c r="X265" s="5"/>
       <c r="Y265" s="5"/>
-      <c r="Z265" s="5"/>
-    </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8171,9 +7893,8 @@
       <c r="W266" s="5"/>
       <c r="X266" s="5"/>
       <c r="Y266" s="5"/>
-      <c r="Z266" s="5"/>
-    </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8199,9 +7920,8 @@
       <c r="W267" s="5"/>
       <c r="X267" s="5"/>
       <c r="Y267" s="5"/>
-      <c r="Z267" s="5"/>
-    </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8227,9 +7947,8 @@
       <c r="W268" s="5"/>
       <c r="X268" s="5"/>
       <c r="Y268" s="5"/>
-      <c r="Z268" s="5"/>
-    </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8255,9 +7974,8 @@
       <c r="W269" s="5"/>
       <c r="X269" s="5"/>
       <c r="Y269" s="5"/>
-      <c r="Z269" s="5"/>
-    </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8283,9 +8001,8 @@
       <c r="W270" s="5"/>
       <c r="X270" s="5"/>
       <c r="Y270" s="5"/>
-      <c r="Z270" s="5"/>
-    </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8311,9 +8028,8 @@
       <c r="W271" s="5"/>
       <c r="X271" s="5"/>
       <c r="Y271" s="5"/>
-      <c r="Z271" s="5"/>
-    </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8339,9 +8055,8 @@
       <c r="W272" s="5"/>
       <c r="X272" s="5"/>
       <c r="Y272" s="5"/>
-      <c r="Z272" s="5"/>
-    </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8367,9 +8082,8 @@
       <c r="W273" s="5"/>
       <c r="X273" s="5"/>
       <c r="Y273" s="5"/>
-      <c r="Z273" s="5"/>
-    </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8395,9 +8109,8 @@
       <c r="W274" s="5"/>
       <c r="X274" s="5"/>
       <c r="Y274" s="5"/>
-      <c r="Z274" s="5"/>
-    </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8423,9 +8136,8 @@
       <c r="W275" s="5"/>
       <c r="X275" s="5"/>
       <c r="Y275" s="5"/>
-      <c r="Z275" s="5"/>
-    </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8451,9 +8163,8 @@
       <c r="W276" s="5"/>
       <c r="X276" s="5"/>
       <c r="Y276" s="5"/>
-      <c r="Z276" s="5"/>
-    </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8479,9 +8190,8 @@
       <c r="W277" s="5"/>
       <c r="X277" s="5"/>
       <c r="Y277" s="5"/>
-      <c r="Z277" s="5"/>
-    </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8507,9 +8217,8 @@
       <c r="W278" s="5"/>
       <c r="X278" s="5"/>
       <c r="Y278" s="5"/>
-      <c r="Z278" s="5"/>
-    </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8535,9 +8244,8 @@
       <c r="W279" s="5"/>
       <c r="X279" s="5"/>
       <c r="Y279" s="5"/>
-      <c r="Z279" s="5"/>
-    </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8563,9 +8271,8 @@
       <c r="W280" s="5"/>
       <c r="X280" s="5"/>
       <c r="Y280" s="5"/>
-      <c r="Z280" s="5"/>
-    </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8591,9 +8298,8 @@
       <c r="W281" s="5"/>
       <c r="X281" s="5"/>
       <c r="Y281" s="5"/>
-      <c r="Z281" s="5"/>
-    </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8619,9 +8325,8 @@
       <c r="W282" s="5"/>
       <c r="X282" s="5"/>
       <c r="Y282" s="5"/>
-      <c r="Z282" s="5"/>
-    </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8647,9 +8352,8 @@
       <c r="W283" s="5"/>
       <c r="X283" s="5"/>
       <c r="Y283" s="5"/>
-      <c r="Z283" s="5"/>
-    </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8675,9 +8379,8 @@
       <c r="W284" s="5"/>
       <c r="X284" s="5"/>
       <c r="Y284" s="5"/>
-      <c r="Z284" s="5"/>
-    </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8703,9 +8406,8 @@
       <c r="W285" s="5"/>
       <c r="X285" s="5"/>
       <c r="Y285" s="5"/>
-      <c r="Z285" s="5"/>
-    </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8731,9 +8433,8 @@
       <c r="W286" s="5"/>
       <c r="X286" s="5"/>
       <c r="Y286" s="5"/>
-      <c r="Z286" s="5"/>
-    </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8759,9 +8460,8 @@
       <c r="W287" s="5"/>
       <c r="X287" s="5"/>
       <c r="Y287" s="5"/>
-      <c r="Z287" s="5"/>
-    </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8787,9 +8487,8 @@
       <c r="W288" s="5"/>
       <c r="X288" s="5"/>
       <c r="Y288" s="5"/>
-      <c r="Z288" s="5"/>
-    </row>
-    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8815,9 +8514,8 @@
       <c r="W289" s="5"/>
       <c r="X289" s="5"/>
       <c r="Y289" s="5"/>
-      <c r="Z289" s="5"/>
-    </row>
-    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8843,9 +8541,8 @@
       <c r="W290" s="5"/>
       <c r="X290" s="5"/>
       <c r="Y290" s="5"/>
-      <c r="Z290" s="5"/>
-    </row>
-    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8871,9 +8568,8 @@
       <c r="W291" s="5"/>
       <c r="X291" s="5"/>
       <c r="Y291" s="5"/>
-      <c r="Z291" s="5"/>
-    </row>
-    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8899,9 +8595,8 @@
       <c r="W292" s="5"/>
       <c r="X292" s="5"/>
       <c r="Y292" s="5"/>
-      <c r="Z292" s="5"/>
-    </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8927,9 +8622,8 @@
       <c r="W293" s="5"/>
       <c r="X293" s="5"/>
       <c r="Y293" s="5"/>
-      <c r="Z293" s="5"/>
-    </row>
-    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8955,9 +8649,8 @@
       <c r="W294" s="5"/>
       <c r="X294" s="5"/>
       <c r="Y294" s="5"/>
-      <c r="Z294" s="5"/>
-    </row>
-    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8983,9 +8676,8 @@
       <c r="W295" s="5"/>
       <c r="X295" s="5"/>
       <c r="Y295" s="5"/>
-      <c r="Z295" s="5"/>
-    </row>
-    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -9011,9 +8703,8 @@
       <c r="W296" s="5"/>
       <c r="X296" s="5"/>
       <c r="Y296" s="5"/>
-      <c r="Z296" s="5"/>
-    </row>
-    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -9039,9 +8730,8 @@
       <c r="W297" s="5"/>
       <c r="X297" s="5"/>
       <c r="Y297" s="5"/>
-      <c r="Z297" s="5"/>
-    </row>
-    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -9067,9 +8757,8 @@
       <c r="W298" s="5"/>
       <c r="X298" s="5"/>
       <c r="Y298" s="5"/>
-      <c r="Z298" s="5"/>
-    </row>
-    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -9095,9 +8784,8 @@
       <c r="W299" s="5"/>
       <c r="X299" s="5"/>
       <c r="Y299" s="5"/>
-      <c r="Z299" s="5"/>
-    </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -9123,9 +8811,8 @@
       <c r="W300" s="5"/>
       <c r="X300" s="5"/>
       <c r="Y300" s="5"/>
-      <c r="Z300" s="5"/>
-    </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -9151,9 +8838,8 @@
       <c r="W301" s="5"/>
       <c r="X301" s="5"/>
       <c r="Y301" s="5"/>
-      <c r="Z301" s="5"/>
-    </row>
-    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -9179,9 +8865,8 @@
       <c r="W302" s="5"/>
       <c r="X302" s="5"/>
       <c r="Y302" s="5"/>
-      <c r="Z302" s="5"/>
-    </row>
-    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -9207,9 +8892,8 @@
       <c r="W303" s="5"/>
       <c r="X303" s="5"/>
       <c r="Y303" s="5"/>
-      <c r="Z303" s="5"/>
-    </row>
-    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -9235,9 +8919,8 @@
       <c r="W304" s="5"/>
       <c r="X304" s="5"/>
       <c r="Y304" s="5"/>
-      <c r="Z304" s="5"/>
-    </row>
-    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -9263,9 +8946,8 @@
       <c r="W305" s="5"/>
       <c r="X305" s="5"/>
       <c r="Y305" s="5"/>
-      <c r="Z305" s="5"/>
-    </row>
-    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -9291,9 +8973,8 @@
       <c r="W306" s="5"/>
       <c r="X306" s="5"/>
       <c r="Y306" s="5"/>
-      <c r="Z306" s="5"/>
-    </row>
-    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -9319,9 +9000,8 @@
       <c r="W307" s="5"/>
       <c r="X307" s="5"/>
       <c r="Y307" s="5"/>
-      <c r="Z307" s="5"/>
-    </row>
-    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -9347,9 +9027,8 @@
       <c r="W308" s="5"/>
       <c r="X308" s="5"/>
       <c r="Y308" s="5"/>
-      <c r="Z308" s="5"/>
-    </row>
-    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -9375,9 +9054,8 @@
       <c r="W309" s="5"/>
       <c r="X309" s="5"/>
       <c r="Y309" s="5"/>
-      <c r="Z309" s="5"/>
-    </row>
-    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -9403,9 +9081,8 @@
       <c r="W310" s="5"/>
       <c r="X310" s="5"/>
       <c r="Y310" s="5"/>
-      <c r="Z310" s="5"/>
-    </row>
-    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9431,9 +9108,8 @@
       <c r="W311" s="5"/>
       <c r="X311" s="5"/>
       <c r="Y311" s="5"/>
-      <c r="Z311" s="5"/>
-    </row>
-    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9459,9 +9135,8 @@
       <c r="W312" s="5"/>
       <c r="X312" s="5"/>
       <c r="Y312" s="5"/>
-      <c r="Z312" s="5"/>
-    </row>
-    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9487,9 +9162,8 @@
       <c r="W313" s="5"/>
       <c r="X313" s="5"/>
       <c r="Y313" s="5"/>
-      <c r="Z313" s="5"/>
-    </row>
-    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9515,9 +9189,8 @@
       <c r="W314" s="5"/>
       <c r="X314" s="5"/>
       <c r="Y314" s="5"/>
-      <c r="Z314" s="5"/>
-    </row>
-    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9543,9 +9216,8 @@
       <c r="W315" s="5"/>
       <c r="X315" s="5"/>
       <c r="Y315" s="5"/>
-      <c r="Z315" s="5"/>
-    </row>
-    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9571,9 +9243,8 @@
       <c r="W316" s="5"/>
       <c r="X316" s="5"/>
       <c r="Y316" s="5"/>
-      <c r="Z316" s="5"/>
-    </row>
-    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9599,9 +9270,8 @@
       <c r="W317" s="5"/>
       <c r="X317" s="5"/>
       <c r="Y317" s="5"/>
-      <c r="Z317" s="5"/>
-    </row>
-    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9627,9 +9297,8 @@
       <c r="W318" s="5"/>
       <c r="X318" s="5"/>
       <c r="Y318" s="5"/>
-      <c r="Z318" s="5"/>
-    </row>
-    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9655,9 +9324,8 @@
       <c r="W319" s="5"/>
       <c r="X319" s="5"/>
       <c r="Y319" s="5"/>
-      <c r="Z319" s="5"/>
-    </row>
-    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9683,9 +9351,8 @@
       <c r="W320" s="5"/>
       <c r="X320" s="5"/>
       <c r="Y320" s="5"/>
-      <c r="Z320" s="5"/>
-    </row>
-    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9711,9 +9378,8 @@
       <c r="W321" s="5"/>
       <c r="X321" s="5"/>
       <c r="Y321" s="5"/>
-      <c r="Z321" s="5"/>
-    </row>
-    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9739,9 +9405,8 @@
       <c r="W322" s="5"/>
       <c r="X322" s="5"/>
       <c r="Y322" s="5"/>
-      <c r="Z322" s="5"/>
-    </row>
-    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9767,9 +9432,8 @@
       <c r="W323" s="5"/>
       <c r="X323" s="5"/>
       <c r="Y323" s="5"/>
-      <c r="Z323" s="5"/>
-    </row>
-    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9795,9 +9459,8 @@
       <c r="W324" s="5"/>
       <c r="X324" s="5"/>
       <c r="Y324" s="5"/>
-      <c r="Z324" s="5"/>
-    </row>
-    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9823,9 +9486,8 @@
       <c r="W325" s="5"/>
       <c r="X325" s="5"/>
       <c r="Y325" s="5"/>
-      <c r="Z325" s="5"/>
-    </row>
-    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9851,9 +9513,8 @@
       <c r="W326" s="5"/>
       <c r="X326" s="5"/>
       <c r="Y326" s="5"/>
-      <c r="Z326" s="5"/>
-    </row>
-    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -9879,9 +9540,8 @@
       <c r="W327" s="5"/>
       <c r="X327" s="5"/>
       <c r="Y327" s="5"/>
-      <c r="Z327" s="5"/>
-    </row>
-    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -9907,9 +9567,8 @@
       <c r="W328" s="5"/>
       <c r="X328" s="5"/>
       <c r="Y328" s="5"/>
-      <c r="Z328" s="5"/>
-    </row>
-    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -9935,9 +9594,8 @@
       <c r="W329" s="5"/>
       <c r="X329" s="5"/>
       <c r="Y329" s="5"/>
-      <c r="Z329" s="5"/>
-    </row>
-    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -9963,9 +9621,8 @@
       <c r="W330" s="5"/>
       <c r="X330" s="5"/>
       <c r="Y330" s="5"/>
-      <c r="Z330" s="5"/>
-    </row>
-    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -9991,9 +9648,8 @@
       <c r="W331" s="5"/>
       <c r="X331" s="5"/>
       <c r="Y331" s="5"/>
-      <c r="Z331" s="5"/>
-    </row>
-    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -10019,9 +9675,8 @@
       <c r="W332" s="5"/>
       <c r="X332" s="5"/>
       <c r="Y332" s="5"/>
-      <c r="Z332" s="5"/>
-    </row>
-    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -10047,9 +9702,8 @@
       <c r="W333" s="5"/>
       <c r="X333" s="5"/>
       <c r="Y333" s="5"/>
-      <c r="Z333" s="5"/>
-    </row>
-    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -10075,9 +9729,8 @@
       <c r="W334" s="5"/>
       <c r="X334" s="5"/>
       <c r="Y334" s="5"/>
-      <c r="Z334" s="5"/>
-    </row>
-    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -10103,9 +9756,8 @@
       <c r="W335" s="5"/>
       <c r="X335" s="5"/>
       <c r="Y335" s="5"/>
-      <c r="Z335" s="5"/>
-    </row>
-    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -10131,9 +9783,8 @@
       <c r="W336" s="5"/>
       <c r="X336" s="5"/>
       <c r="Y336" s="5"/>
-      <c r="Z336" s="5"/>
-    </row>
-    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -10159,9 +9810,8 @@
       <c r="W337" s="5"/>
       <c r="X337" s="5"/>
       <c r="Y337" s="5"/>
-      <c r="Z337" s="5"/>
-    </row>
-    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -10187,9 +9837,8 @@
       <c r="W338" s="5"/>
       <c r="X338" s="5"/>
       <c r="Y338" s="5"/>
-      <c r="Z338" s="5"/>
-    </row>
-    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -10215,9 +9864,8 @@
       <c r="W339" s="5"/>
       <c r="X339" s="5"/>
       <c r="Y339" s="5"/>
-      <c r="Z339" s="5"/>
-    </row>
-    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -10243,9 +9891,8 @@
       <c r="W340" s="5"/>
       <c r="X340" s="5"/>
       <c r="Y340" s="5"/>
-      <c r="Z340" s="5"/>
-    </row>
-    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -10271,9 +9918,8 @@
       <c r="W341" s="5"/>
       <c r="X341" s="5"/>
       <c r="Y341" s="5"/>
-      <c r="Z341" s="5"/>
-    </row>
-    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -10299,9 +9945,8 @@
       <c r="W342" s="5"/>
       <c r="X342" s="5"/>
       <c r="Y342" s="5"/>
-      <c r="Z342" s="5"/>
-    </row>
-    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -10327,9 +9972,8 @@
       <c r="W343" s="5"/>
       <c r="X343" s="5"/>
       <c r="Y343" s="5"/>
-      <c r="Z343" s="5"/>
-    </row>
-    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -10355,9 +9999,8 @@
       <c r="W344" s="5"/>
       <c r="X344" s="5"/>
       <c r="Y344" s="5"/>
-      <c r="Z344" s="5"/>
-    </row>
-    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -10383,9 +10026,8 @@
       <c r="W345" s="5"/>
       <c r="X345" s="5"/>
       <c r="Y345" s="5"/>
-      <c r="Z345" s="5"/>
-    </row>
-    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -10411,9 +10053,8 @@
       <c r="W346" s="5"/>
       <c r="X346" s="5"/>
       <c r="Y346" s="5"/>
-      <c r="Z346" s="5"/>
-    </row>
-    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -10439,9 +10080,8 @@
       <c r="W347" s="5"/>
       <c r="X347" s="5"/>
       <c r="Y347" s="5"/>
-      <c r="Z347" s="5"/>
-    </row>
-    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -10467,9 +10107,8 @@
       <c r="W348" s="5"/>
       <c r="X348" s="5"/>
       <c r="Y348" s="5"/>
-      <c r="Z348" s="5"/>
-    </row>
-    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -10495,9 +10134,8 @@
       <c r="W349" s="5"/>
       <c r="X349" s="5"/>
       <c r="Y349" s="5"/>
-      <c r="Z349" s="5"/>
-    </row>
-    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10523,9 +10161,8 @@
       <c r="W350" s="5"/>
       <c r="X350" s="5"/>
       <c r="Y350" s="5"/>
-      <c r="Z350" s="5"/>
-    </row>
-    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10551,9 +10188,8 @@
       <c r="W351" s="5"/>
       <c r="X351" s="5"/>
       <c r="Y351" s="5"/>
-      <c r="Z351" s="5"/>
-    </row>
-    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10579,9 +10215,8 @@
       <c r="W352" s="5"/>
       <c r="X352" s="5"/>
       <c r="Y352" s="5"/>
-      <c r="Z352" s="5"/>
-    </row>
-    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10607,9 +10242,8 @@
       <c r="W353" s="5"/>
       <c r="X353" s="5"/>
       <c r="Y353" s="5"/>
-      <c r="Z353" s="5"/>
-    </row>
-    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10635,9 +10269,8 @@
       <c r="W354" s="5"/>
       <c r="X354" s="5"/>
       <c r="Y354" s="5"/>
-      <c r="Z354" s="5"/>
-    </row>
-    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10663,9 +10296,8 @@
       <c r="W355" s="5"/>
       <c r="X355" s="5"/>
       <c r="Y355" s="5"/>
-      <c r="Z355" s="5"/>
-    </row>
-    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10691,9 +10323,8 @@
       <c r="W356" s="5"/>
       <c r="X356" s="5"/>
       <c r="Y356" s="5"/>
-      <c r="Z356" s="5"/>
-    </row>
-    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10719,9 +10350,8 @@
       <c r="W357" s="5"/>
       <c r="X357" s="5"/>
       <c r="Y357" s="5"/>
-      <c r="Z357" s="5"/>
-    </row>
-    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10747,9 +10377,8 @@
       <c r="W358" s="5"/>
       <c r="X358" s="5"/>
       <c r="Y358" s="5"/>
-      <c r="Z358" s="5"/>
-    </row>
-    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -10775,9 +10404,8 @@
       <c r="W359" s="5"/>
       <c r="X359" s="5"/>
       <c r="Y359" s="5"/>
-      <c r="Z359" s="5"/>
-    </row>
-    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -10803,9 +10431,8 @@
       <c r="W360" s="5"/>
       <c r="X360" s="5"/>
       <c r="Y360" s="5"/>
-      <c r="Z360" s="5"/>
-    </row>
-    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -10831,9 +10458,8 @@
       <c r="W361" s="5"/>
       <c r="X361" s="5"/>
       <c r="Y361" s="5"/>
-      <c r="Z361" s="5"/>
-    </row>
-    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -10859,9 +10485,8 @@
       <c r="W362" s="5"/>
       <c r="X362" s="5"/>
       <c r="Y362" s="5"/>
-      <c r="Z362" s="5"/>
-    </row>
-    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -10887,9 +10512,8 @@
       <c r="W363" s="5"/>
       <c r="X363" s="5"/>
       <c r="Y363" s="5"/>
-      <c r="Z363" s="5"/>
-    </row>
-    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -10915,9 +10539,8 @@
       <c r="W364" s="5"/>
       <c r="X364" s="5"/>
       <c r="Y364" s="5"/>
-      <c r="Z364" s="5"/>
-    </row>
-    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -10943,9 +10566,8 @@
       <c r="W365" s="5"/>
       <c r="X365" s="5"/>
       <c r="Y365" s="5"/>
-      <c r="Z365" s="5"/>
-    </row>
-    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -10971,9 +10593,8 @@
       <c r="W366" s="5"/>
       <c r="X366" s="5"/>
       <c r="Y366" s="5"/>
-      <c r="Z366" s="5"/>
-    </row>
-    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -10999,9 +10620,8 @@
       <c r="W367" s="5"/>
       <c r="X367" s="5"/>
       <c r="Y367" s="5"/>
-      <c r="Z367" s="5"/>
-    </row>
-    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -11027,9 +10647,8 @@
       <c r="W368" s="5"/>
       <c r="X368" s="5"/>
       <c r="Y368" s="5"/>
-      <c r="Z368" s="5"/>
-    </row>
-    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -11055,9 +10674,8 @@
       <c r="W369" s="5"/>
       <c r="X369" s="5"/>
       <c r="Y369" s="5"/>
-      <c r="Z369" s="5"/>
-    </row>
-    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="370" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -11083,9 +10701,8 @@
       <c r="W370" s="5"/>
       <c r="X370" s="5"/>
       <c r="Y370" s="5"/>
-      <c r="Z370" s="5"/>
-    </row>
-    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="371" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -11111,9 +10728,8 @@
       <c r="W371" s="5"/>
       <c r="X371" s="5"/>
       <c r="Y371" s="5"/>
-      <c r="Z371" s="5"/>
-    </row>
-    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="372" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -11139,9 +10755,8 @@
       <c r="W372" s="5"/>
       <c r="X372" s="5"/>
       <c r="Y372" s="5"/>
-      <c r="Z372" s="5"/>
-    </row>
-    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="373" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -11167,9 +10782,8 @@
       <c r="W373" s="5"/>
       <c r="X373" s="5"/>
       <c r="Y373" s="5"/>
-      <c r="Z373" s="5"/>
-    </row>
-    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -11195,9 +10809,8 @@
       <c r="W374" s="5"/>
       <c r="X374" s="5"/>
       <c r="Y374" s="5"/>
-      <c r="Z374" s="5"/>
-    </row>
-    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -11223,9 +10836,8 @@
       <c r="W375" s="5"/>
       <c r="X375" s="5"/>
       <c r="Y375" s="5"/>
-      <c r="Z375" s="5"/>
-    </row>
-    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -11251,9 +10863,8 @@
       <c r="W376" s="5"/>
       <c r="X376" s="5"/>
       <c r="Y376" s="5"/>
-      <c r="Z376" s="5"/>
-    </row>
-    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -11279,9 +10890,8 @@
       <c r="W377" s="5"/>
       <c r="X377" s="5"/>
       <c r="Y377" s="5"/>
-      <c r="Z377" s="5"/>
-    </row>
-    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="378" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -11307,9 +10917,8 @@
       <c r="W378" s="5"/>
       <c r="X378" s="5"/>
       <c r="Y378" s="5"/>
-      <c r="Z378" s="5"/>
-    </row>
-    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="379" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -11335,9 +10944,8 @@
       <c r="W379" s="5"/>
       <c r="X379" s="5"/>
       <c r="Y379" s="5"/>
-      <c r="Z379" s="5"/>
-    </row>
-    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="380" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -11363,9 +10971,8 @@
       <c r="W380" s="5"/>
       <c r="X380" s="5"/>
       <c r="Y380" s="5"/>
-      <c r="Z380" s="5"/>
-    </row>
-    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -11391,9 +10998,8 @@
       <c r="W381" s="5"/>
       <c r="X381" s="5"/>
       <c r="Y381" s="5"/>
-      <c r="Z381" s="5"/>
-    </row>
-    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -11419,9 +11025,8 @@
       <c r="W382" s="5"/>
       <c r="X382" s="5"/>
       <c r="Y382" s="5"/>
-      <c r="Z382" s="5"/>
-    </row>
-    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="383" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -11447,9 +11052,8 @@
       <c r="W383" s="5"/>
       <c r="X383" s="5"/>
       <c r="Y383" s="5"/>
-      <c r="Z383" s="5"/>
-    </row>
-    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -11475,9 +11079,8 @@
       <c r="W384" s="5"/>
       <c r="X384" s="5"/>
       <c r="Y384" s="5"/>
-      <c r="Z384" s="5"/>
-    </row>
-    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -11503,9 +11106,8 @@
       <c r="W385" s="5"/>
       <c r="X385" s="5"/>
       <c r="Y385" s="5"/>
-      <c r="Z385" s="5"/>
-    </row>
-    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -11531,9 +11133,8 @@
       <c r="W386" s="5"/>
       <c r="X386" s="5"/>
       <c r="Y386" s="5"/>
-      <c r="Z386" s="5"/>
-    </row>
-    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11559,9 +11160,8 @@
       <c r="W387" s="5"/>
       <c r="X387" s="5"/>
       <c r="Y387" s="5"/>
-      <c r="Z387" s="5"/>
-    </row>
-    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11587,9 +11187,8 @@
       <c r="W388" s="5"/>
       <c r="X388" s="5"/>
       <c r="Y388" s="5"/>
-      <c r="Z388" s="5"/>
-    </row>
-    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11615,9 +11214,8 @@
       <c r="W389" s="5"/>
       <c r="X389" s="5"/>
       <c r="Y389" s="5"/>
-      <c r="Z389" s="5"/>
-    </row>
-    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11643,9 +11241,8 @@
       <c r="W390" s="5"/>
       <c r="X390" s="5"/>
       <c r="Y390" s="5"/>
-      <c r="Z390" s="5"/>
-    </row>
-    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11671,9 +11268,8 @@
       <c r="W391" s="5"/>
       <c r="X391" s="5"/>
       <c r="Y391" s="5"/>
-      <c r="Z391" s="5"/>
-    </row>
-    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11699,9 +11295,8 @@
       <c r="W392" s="5"/>
       <c r="X392" s="5"/>
       <c r="Y392" s="5"/>
-      <c r="Z392" s="5"/>
-    </row>
-    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11727,9 +11322,8 @@
       <c r="W393" s="5"/>
       <c r="X393" s="5"/>
       <c r="Y393" s="5"/>
-      <c r="Z393" s="5"/>
-    </row>
-    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11755,9 +11349,8 @@
       <c r="W394" s="5"/>
       <c r="X394" s="5"/>
       <c r="Y394" s="5"/>
-      <c r="Z394" s="5"/>
-    </row>
-    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -11783,9 +11376,8 @@
       <c r="W395" s="5"/>
       <c r="X395" s="5"/>
       <c r="Y395" s="5"/>
-      <c r="Z395" s="5"/>
-    </row>
-    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -11811,9 +11403,8 @@
       <c r="W396" s="5"/>
       <c r="X396" s="5"/>
       <c r="Y396" s="5"/>
-      <c r="Z396" s="5"/>
-    </row>
-    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -11839,9 +11430,8 @@
       <c r="W397" s="5"/>
       <c r="X397" s="5"/>
       <c r="Y397" s="5"/>
-      <c r="Z397" s="5"/>
-    </row>
-    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -11867,9 +11457,8 @@
       <c r="W398" s="5"/>
       <c r="X398" s="5"/>
       <c r="Y398" s="5"/>
-      <c r="Z398" s="5"/>
-    </row>
-    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -11895,9 +11484,8 @@
       <c r="W399" s="5"/>
       <c r="X399" s="5"/>
       <c r="Y399" s="5"/>
-      <c r="Z399" s="5"/>
-    </row>
-    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -11923,9 +11511,8 @@
       <c r="W400" s="5"/>
       <c r="X400" s="5"/>
       <c r="Y400" s="5"/>
-      <c r="Z400" s="5"/>
-    </row>
-    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -11951,9 +11538,8 @@
       <c r="W401" s="5"/>
       <c r="X401" s="5"/>
       <c r="Y401" s="5"/>
-      <c r="Z401" s="5"/>
-    </row>
-    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -11979,9 +11565,8 @@
       <c r="W402" s="5"/>
       <c r="X402" s="5"/>
       <c r="Y402" s="5"/>
-      <c r="Z402" s="5"/>
-    </row>
-    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -12007,9 +11592,8 @@
       <c r="W403" s="5"/>
       <c r="X403" s="5"/>
       <c r="Y403" s="5"/>
-      <c r="Z403" s="5"/>
-    </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -12035,9 +11619,8 @@
       <c r="W404" s="5"/>
       <c r="X404" s="5"/>
       <c r="Y404" s="5"/>
-      <c r="Z404" s="5"/>
-    </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -12063,9 +11646,8 @@
       <c r="W405" s="5"/>
       <c r="X405" s="5"/>
       <c r="Y405" s="5"/>
-      <c r="Z405" s="5"/>
-    </row>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -12091,9 +11673,8 @@
       <c r="W406" s="5"/>
       <c r="X406" s="5"/>
       <c r="Y406" s="5"/>
-      <c r="Z406" s="5"/>
-    </row>
-    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -12119,9 +11700,8 @@
       <c r="W407" s="5"/>
       <c r="X407" s="5"/>
       <c r="Y407" s="5"/>
-      <c r="Z407" s="5"/>
-    </row>
-    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -12147,9 +11727,8 @@
       <c r="W408" s="5"/>
       <c r="X408" s="5"/>
       <c r="Y408" s="5"/>
-      <c r="Z408" s="5"/>
-    </row>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -12175,9 +11754,8 @@
       <c r="W409" s="5"/>
       <c r="X409" s="5"/>
       <c r="Y409" s="5"/>
-      <c r="Z409" s="5"/>
-    </row>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -12203,9 +11781,8 @@
       <c r="W410" s="5"/>
       <c r="X410" s="5"/>
       <c r="Y410" s="5"/>
-      <c r="Z410" s="5"/>
-    </row>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -12231,9 +11808,8 @@
       <c r="W411" s="5"/>
       <c r="X411" s="5"/>
       <c r="Y411" s="5"/>
-      <c r="Z411" s="5"/>
-    </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -12259,9 +11835,8 @@
       <c r="W412" s="5"/>
       <c r="X412" s="5"/>
       <c r="Y412" s="5"/>
-      <c r="Z412" s="5"/>
-    </row>
-    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -12287,9 +11862,8 @@
       <c r="W413" s="5"/>
       <c r="X413" s="5"/>
       <c r="Y413" s="5"/>
-      <c r="Z413" s="5"/>
-    </row>
-    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -12315,9 +11889,8 @@
       <c r="W414" s="5"/>
       <c r="X414" s="5"/>
       <c r="Y414" s="5"/>
-      <c r="Z414" s="5"/>
-    </row>
-    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -12343,9 +11916,8 @@
       <c r="W415" s="5"/>
       <c r="X415" s="5"/>
       <c r="Y415" s="5"/>
-      <c r="Z415" s="5"/>
-    </row>
-    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -12371,9 +11943,8 @@
       <c r="W416" s="5"/>
       <c r="X416" s="5"/>
       <c r="Y416" s="5"/>
-      <c r="Z416" s="5"/>
-    </row>
-    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -12399,9 +11970,8 @@
       <c r="W417" s="5"/>
       <c r="X417" s="5"/>
       <c r="Y417" s="5"/>
-      <c r="Z417" s="5"/>
-    </row>
-    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -12427,9 +11997,8 @@
       <c r="W418" s="5"/>
       <c r="X418" s="5"/>
       <c r="Y418" s="5"/>
-      <c r="Z418" s="5"/>
-    </row>
-    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -12455,9 +12024,8 @@
       <c r="W419" s="5"/>
       <c r="X419" s="5"/>
       <c r="Y419" s="5"/>
-      <c r="Z419" s="5"/>
-    </row>
-    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -12483,9 +12051,8 @@
       <c r="W420" s="5"/>
       <c r="X420" s="5"/>
       <c r="Y420" s="5"/>
-      <c r="Z420" s="5"/>
-    </row>
-    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -12511,9 +12078,8 @@
       <c r="W421" s="5"/>
       <c r="X421" s="5"/>
       <c r="Y421" s="5"/>
-      <c r="Z421" s="5"/>
-    </row>
-    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -12539,9 +12105,8 @@
       <c r="W422" s="5"/>
       <c r="X422" s="5"/>
       <c r="Y422" s="5"/>
-      <c r="Z422" s="5"/>
-    </row>
-    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -12567,9 +12132,8 @@
       <c r="W423" s="5"/>
       <c r="X423" s="5"/>
       <c r="Y423" s="5"/>
-      <c r="Z423" s="5"/>
-    </row>
-    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12595,9 +12159,8 @@
       <c r="W424" s="5"/>
       <c r="X424" s="5"/>
       <c r="Y424" s="5"/>
-      <c r="Z424" s="5"/>
-    </row>
-    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12623,9 +12186,8 @@
       <c r="W425" s="5"/>
       <c r="X425" s="5"/>
       <c r="Y425" s="5"/>
-      <c r="Z425" s="5"/>
-    </row>
-    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12651,9 +12213,8 @@
       <c r="W426" s="5"/>
       <c r="X426" s="5"/>
       <c r="Y426" s="5"/>
-      <c r="Z426" s="5"/>
-    </row>
-    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12679,9 +12240,8 @@
       <c r="W427" s="5"/>
       <c r="X427" s="5"/>
       <c r="Y427" s="5"/>
-      <c r="Z427" s="5"/>
-    </row>
-    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12707,9 +12267,8 @@
       <c r="W428" s="5"/>
       <c r="X428" s="5"/>
       <c r="Y428" s="5"/>
-      <c r="Z428" s="5"/>
-    </row>
-    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12735,9 +12294,8 @@
       <c r="W429" s="5"/>
       <c r="X429" s="5"/>
       <c r="Y429" s="5"/>
-      <c r="Z429" s="5"/>
-    </row>
-    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -12763,9 +12321,8 @@
       <c r="W430" s="5"/>
       <c r="X430" s="5"/>
       <c r="Y430" s="5"/>
-      <c r="Z430" s="5"/>
-    </row>
-    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -12791,9 +12348,8 @@
       <c r="W431" s="5"/>
       <c r="X431" s="5"/>
       <c r="Y431" s="5"/>
-      <c r="Z431" s="5"/>
-    </row>
-    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -12819,9 +12375,8 @@
       <c r="W432" s="5"/>
       <c r="X432" s="5"/>
       <c r="Y432" s="5"/>
-      <c r="Z432" s="5"/>
-    </row>
-    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -12847,9 +12402,8 @@
       <c r="W433" s="5"/>
       <c r="X433" s="5"/>
       <c r="Y433" s="5"/>
-      <c r="Z433" s="5"/>
-    </row>
-    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -12875,9 +12429,8 @@
       <c r="W434" s="5"/>
       <c r="X434" s="5"/>
       <c r="Y434" s="5"/>
-      <c r="Z434" s="5"/>
-    </row>
-    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -12903,9 +12456,8 @@
       <c r="W435" s="5"/>
       <c r="X435" s="5"/>
       <c r="Y435" s="5"/>
-      <c r="Z435" s="5"/>
-    </row>
-    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -12931,9 +12483,8 @@
       <c r="W436" s="5"/>
       <c r="X436" s="5"/>
       <c r="Y436" s="5"/>
-      <c r="Z436" s="5"/>
-    </row>
-    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -12959,9 +12510,8 @@
       <c r="W437" s="5"/>
       <c r="X437" s="5"/>
       <c r="Y437" s="5"/>
-      <c r="Z437" s="5"/>
-    </row>
-    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -12987,9 +12537,8 @@
       <c r="W438" s="5"/>
       <c r="X438" s="5"/>
       <c r="Y438" s="5"/>
-      <c r="Z438" s="5"/>
-    </row>
-    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -13015,9 +12564,8 @@
       <c r="W439" s="5"/>
       <c r="X439" s="5"/>
       <c r="Y439" s="5"/>
-      <c r="Z439" s="5"/>
-    </row>
-    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -13043,9 +12591,8 @@
       <c r="W440" s="5"/>
       <c r="X440" s="5"/>
       <c r="Y440" s="5"/>
-      <c r="Z440" s="5"/>
-    </row>
-    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -13071,9 +12618,8 @@
       <c r="W441" s="5"/>
       <c r="X441" s="5"/>
       <c r="Y441" s="5"/>
-      <c r="Z441" s="5"/>
-    </row>
-    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -13099,9 +12645,8 @@
       <c r="W442" s="5"/>
       <c r="X442" s="5"/>
       <c r="Y442" s="5"/>
-      <c r="Z442" s="5"/>
-    </row>
-    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -13127,9 +12672,8 @@
       <c r="W443" s="5"/>
       <c r="X443" s="5"/>
       <c r="Y443" s="5"/>
-      <c r="Z443" s="5"/>
-    </row>
-    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -13155,9 +12699,8 @@
       <c r="W444" s="5"/>
       <c r="X444" s="5"/>
       <c r="Y444" s="5"/>
-      <c r="Z444" s="5"/>
-    </row>
-    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -13183,9 +12726,8 @@
       <c r="W445" s="5"/>
       <c r="X445" s="5"/>
       <c r="Y445" s="5"/>
-      <c r="Z445" s="5"/>
-    </row>
-    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -13211,9 +12753,8 @@
       <c r="W446" s="5"/>
       <c r="X446" s="5"/>
       <c r="Y446" s="5"/>
-      <c r="Z446" s="5"/>
-    </row>
-    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -13239,9 +12780,8 @@
       <c r="W447" s="5"/>
       <c r="X447" s="5"/>
       <c r="Y447" s="5"/>
-      <c r="Z447" s="5"/>
-    </row>
-    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -13267,9 +12807,8 @@
       <c r="W448" s="5"/>
       <c r="X448" s="5"/>
       <c r="Y448" s="5"/>
-      <c r="Z448" s="5"/>
-    </row>
-    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -13295,9 +12834,8 @@
       <c r="W449" s="5"/>
       <c r="X449" s="5"/>
       <c r="Y449" s="5"/>
-      <c r="Z449" s="5"/>
-    </row>
-    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -13323,9 +12861,8 @@
       <c r="W450" s="5"/>
       <c r="X450" s="5"/>
       <c r="Y450" s="5"/>
-      <c r="Z450" s="5"/>
-    </row>
-    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -13351,9 +12888,8 @@
       <c r="W451" s="5"/>
       <c r="X451" s="5"/>
       <c r="Y451" s="5"/>
-      <c r="Z451" s="5"/>
-    </row>
-    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -13379,9 +12915,8 @@
       <c r="W452" s="5"/>
       <c r="X452" s="5"/>
       <c r="Y452" s="5"/>
-      <c r="Z452" s="5"/>
-    </row>
-    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -13407,9 +12942,8 @@
       <c r="W453" s="5"/>
       <c r="X453" s="5"/>
       <c r="Y453" s="5"/>
-      <c r="Z453" s="5"/>
-    </row>
-    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -13435,9 +12969,8 @@
       <c r="W454" s="5"/>
       <c r="X454" s="5"/>
       <c r="Y454" s="5"/>
-      <c r="Z454" s="5"/>
-    </row>
-    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -13463,9 +12996,8 @@
       <c r="W455" s="5"/>
       <c r="X455" s="5"/>
       <c r="Y455" s="5"/>
-      <c r="Z455" s="5"/>
-    </row>
-    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -13491,9 +13023,8 @@
       <c r="W456" s="5"/>
       <c r="X456" s="5"/>
       <c r="Y456" s="5"/>
-      <c r="Z456" s="5"/>
-    </row>
-    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -13519,9 +13050,8 @@
       <c r="W457" s="5"/>
       <c r="X457" s="5"/>
       <c r="Y457" s="5"/>
-      <c r="Z457" s="5"/>
-    </row>
-    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -13547,9 +13077,8 @@
       <c r="W458" s="5"/>
       <c r="X458" s="5"/>
       <c r="Y458" s="5"/>
-      <c r="Z458" s="5"/>
-    </row>
-    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -13575,9 +13104,8 @@
       <c r="W459" s="5"/>
       <c r="X459" s="5"/>
       <c r="Y459" s="5"/>
-      <c r="Z459" s="5"/>
-    </row>
-    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="460" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -13603,9 +13131,8 @@
       <c r="W460" s="5"/>
       <c r="X460" s="5"/>
       <c r="Y460" s="5"/>
-      <c r="Z460" s="5"/>
-    </row>
-    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -13631,9 +13158,8 @@
       <c r="W461" s="5"/>
       <c r="X461" s="5"/>
       <c r="Y461" s="5"/>
-      <c r="Z461" s="5"/>
-    </row>
-    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -13659,9 +13185,8 @@
       <c r="W462" s="5"/>
       <c r="X462" s="5"/>
       <c r="Y462" s="5"/>
-      <c r="Z462" s="5"/>
-    </row>
-    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -13687,9 +13212,8 @@
       <c r="W463" s="5"/>
       <c r="X463" s="5"/>
       <c r="Y463" s="5"/>
-      <c r="Z463" s="5"/>
-    </row>
-    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -13715,9 +13239,8 @@
       <c r="W464" s="5"/>
       <c r="X464" s="5"/>
       <c r="Y464" s="5"/>
-      <c r="Z464" s="5"/>
-    </row>
-    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -13743,9 +13266,8 @@
       <c r="W465" s="5"/>
       <c r="X465" s="5"/>
       <c r="Y465" s="5"/>
-      <c r="Z465" s="5"/>
-    </row>
-    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="466" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -13771,9 +13293,8 @@
       <c r="W466" s="5"/>
       <c r="X466" s="5"/>
       <c r="Y466" s="5"/>
-      <c r="Z466" s="5"/>
-    </row>
-    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="467" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -13799,9 +13320,8 @@
       <c r="W467" s="5"/>
       <c r="X467" s="5"/>
       <c r="Y467" s="5"/>
-      <c r="Z467" s="5"/>
-    </row>
-    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="468" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -13827,9 +13347,8 @@
       <c r="W468" s="5"/>
       <c r="X468" s="5"/>
       <c r="Y468" s="5"/>
-      <c r="Z468" s="5"/>
-    </row>
-    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -13855,9 +13374,8 @@
       <c r="W469" s="5"/>
       <c r="X469" s="5"/>
       <c r="Y469" s="5"/>
-      <c r="Z469" s="5"/>
-    </row>
-    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="470" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -13883,9 +13401,8 @@
       <c r="W470" s="5"/>
       <c r="X470" s="5"/>
       <c r="Y470" s="5"/>
-      <c r="Z470" s="5"/>
-    </row>
-    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="471" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -13911,9 +13428,8 @@
       <c r="W471" s="5"/>
       <c r="X471" s="5"/>
       <c r="Y471" s="5"/>
-      <c r="Z471" s="5"/>
-    </row>
-    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="472" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -13939,9 +13455,8 @@
       <c r="W472" s="5"/>
       <c r="X472" s="5"/>
       <c r="Y472" s="5"/>
-      <c r="Z472" s="5"/>
-    </row>
-    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -13967,9 +13482,8 @@
       <c r="W473" s="5"/>
       <c r="X473" s="5"/>
       <c r="Y473" s="5"/>
-      <c r="Z473" s="5"/>
-    </row>
-    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="474" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -13995,9 +13509,8 @@
       <c r="W474" s="5"/>
       <c r="X474" s="5"/>
       <c r="Y474" s="5"/>
-      <c r="Z474" s="5"/>
-    </row>
-    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -14023,9 +13536,8 @@
       <c r="W475" s="5"/>
       <c r="X475" s="5"/>
       <c r="Y475" s="5"/>
-      <c r="Z475" s="5"/>
-    </row>
-    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -14051,9 +13563,8 @@
       <c r="W476" s="5"/>
       <c r="X476" s="5"/>
       <c r="Y476" s="5"/>
-      <c r="Z476" s="5"/>
-    </row>
-    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="477" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -14079,9 +13590,8 @@
       <c r="W477" s="5"/>
       <c r="X477" s="5"/>
       <c r="Y477" s="5"/>
-      <c r="Z477" s="5"/>
-    </row>
-    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="478" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -14107,9 +13617,8 @@
       <c r="W478" s="5"/>
       <c r="X478" s="5"/>
       <c r="Y478" s="5"/>
-      <c r="Z478" s="5"/>
-    </row>
-    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -14135,9 +13644,8 @@
       <c r="W479" s="5"/>
       <c r="X479" s="5"/>
       <c r="Y479" s="5"/>
-      <c r="Z479" s="5"/>
-    </row>
-    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="480" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -14163,9 +13671,8 @@
       <c r="W480" s="5"/>
       <c r="X480" s="5"/>
       <c r="Y480" s="5"/>
-      <c r="Z480" s="5"/>
-    </row>
-    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -14191,9 +13698,8 @@
       <c r="W481" s="5"/>
       <c r="X481" s="5"/>
       <c r="Y481" s="5"/>
-      <c r="Z481" s="5"/>
-    </row>
-    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="482" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -14219,9 +13725,8 @@
       <c r="W482" s="5"/>
       <c r="X482" s="5"/>
       <c r="Y482" s="5"/>
-      <c r="Z482" s="5"/>
-    </row>
-    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="483" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -14247,9 +13752,8 @@
       <c r="W483" s="5"/>
       <c r="X483" s="5"/>
       <c r="Y483" s="5"/>
-      <c r="Z483" s="5"/>
-    </row>
-    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="484" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -14275,9 +13779,8 @@
       <c r="W484" s="5"/>
       <c r="X484" s="5"/>
       <c r="Y484" s="5"/>
-      <c r="Z484" s="5"/>
-    </row>
-    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="485" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -14303,9 +13806,8 @@
       <c r="W485" s="5"/>
       <c r="X485" s="5"/>
       <c r="Y485" s="5"/>
-      <c r="Z485" s="5"/>
-    </row>
-    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="486" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -14331,9 +13833,8 @@
       <c r="W486" s="5"/>
       <c r="X486" s="5"/>
       <c r="Y486" s="5"/>
-      <c r="Z486" s="5"/>
-    </row>
-    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="487" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -14359,9 +13860,8 @@
       <c r="W487" s="5"/>
       <c r="X487" s="5"/>
       <c r="Y487" s="5"/>
-      <c r="Z487" s="5"/>
-    </row>
-    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="488" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -14387,9 +13887,8 @@
       <c r="W488" s="5"/>
       <c r="X488" s="5"/>
       <c r="Y488" s="5"/>
-      <c r="Z488" s="5"/>
-    </row>
-    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="489" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -14415,9 +13914,8 @@
       <c r="W489" s="5"/>
       <c r="X489" s="5"/>
       <c r="Y489" s="5"/>
-      <c r="Z489" s="5"/>
-    </row>
-    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="490" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -14443,9 +13941,8 @@
       <c r="W490" s="5"/>
       <c r="X490" s="5"/>
       <c r="Y490" s="5"/>
-      <c r="Z490" s="5"/>
-    </row>
-    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="491" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -14471,9 +13968,8 @@
       <c r="W491" s="5"/>
       <c r="X491" s="5"/>
       <c r="Y491" s="5"/>
-      <c r="Z491" s="5"/>
-    </row>
-    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="492" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -14499,9 +13995,8 @@
       <c r="W492" s="5"/>
       <c r="X492" s="5"/>
       <c r="Y492" s="5"/>
-      <c r="Z492" s="5"/>
-    </row>
-    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="493" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -14527,9 +14022,8 @@
       <c r="W493" s="5"/>
       <c r="X493" s="5"/>
       <c r="Y493" s="5"/>
-      <c r="Z493" s="5"/>
-    </row>
-    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="494" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -14555,9 +14049,8 @@
       <c r="W494" s="5"/>
       <c r="X494" s="5"/>
       <c r="Y494" s="5"/>
-      <c r="Z494" s="5"/>
-    </row>
-    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="495" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -14583,9 +14076,8 @@
       <c r="W495" s="5"/>
       <c r="X495" s="5"/>
       <c r="Y495" s="5"/>
-      <c r="Z495" s="5"/>
-    </row>
-    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="496" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -14611,9 +14103,8 @@
       <c r="W496" s="5"/>
       <c r="X496" s="5"/>
       <c r="Y496" s="5"/>
-      <c r="Z496" s="5"/>
-    </row>
-    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="497" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -14639,9 +14130,8 @@
       <c r="W497" s="5"/>
       <c r="X497" s="5"/>
       <c r="Y497" s="5"/>
-      <c r="Z497" s="5"/>
-    </row>
-    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -14667,9 +14157,8 @@
       <c r="W498" s="5"/>
       <c r="X498" s="5"/>
       <c r="Y498" s="5"/>
-      <c r="Z498" s="5"/>
-    </row>
-    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -14695,9 +14184,8 @@
       <c r="W499" s="5"/>
       <c r="X499" s="5"/>
       <c r="Y499" s="5"/>
-      <c r="Z499" s="5"/>
-    </row>
-    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -14723,9 +14211,8 @@
       <c r="W500" s="5"/>
       <c r="X500" s="5"/>
       <c r="Y500" s="5"/>
-      <c r="Z500" s="5"/>
-    </row>
-    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -14751,9 +14238,8 @@
       <c r="W501" s="5"/>
       <c r="X501" s="5"/>
       <c r="Y501" s="5"/>
-      <c r="Z501" s="5"/>
-    </row>
-    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="502" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -14779,9 +14265,8 @@
       <c r="W502" s="5"/>
       <c r="X502" s="5"/>
       <c r="Y502" s="5"/>
-      <c r="Z502" s="5"/>
-    </row>
-    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="503" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -14807,9 +14292,8 @@
       <c r="W503" s="5"/>
       <c r="X503" s="5"/>
       <c r="Y503" s="5"/>
-      <c r="Z503" s="5"/>
-    </row>
-    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="504" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -14835,9 +14319,8 @@
       <c r="W504" s="5"/>
       <c r="X504" s="5"/>
       <c r="Y504" s="5"/>
-      <c r="Z504" s="5"/>
-    </row>
-    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="505" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -14863,9 +14346,8 @@
       <c r="W505" s="5"/>
       <c r="X505" s="5"/>
       <c r="Y505" s="5"/>
-      <c r="Z505" s="5"/>
-    </row>
-    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -14891,9 +14373,8 @@
       <c r="W506" s="5"/>
       <c r="X506" s="5"/>
       <c r="Y506" s="5"/>
-      <c r="Z506" s="5"/>
-    </row>
-    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="507" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -14919,9 +14400,8 @@
       <c r="W507" s="5"/>
       <c r="X507" s="5"/>
       <c r="Y507" s="5"/>
-      <c r="Z507" s="5"/>
-    </row>
-    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="508" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -14947,9 +14427,8 @@
       <c r="W508" s="5"/>
       <c r="X508" s="5"/>
       <c r="Y508" s="5"/>
-      <c r="Z508" s="5"/>
-    </row>
-    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="509" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -14975,9 +14454,8 @@
       <c r="W509" s="5"/>
       <c r="X509" s="5"/>
       <c r="Y509" s="5"/>
-      <c r="Z509" s="5"/>
-    </row>
-    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="510" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -15003,9 +14481,8 @@
       <c r="W510" s="5"/>
       <c r="X510" s="5"/>
       <c r="Y510" s="5"/>
-      <c r="Z510" s="5"/>
-    </row>
-    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="511" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -15031,9 +14508,8 @@
       <c r="W511" s="5"/>
       <c r="X511" s="5"/>
       <c r="Y511" s="5"/>
-      <c r="Z511" s="5"/>
-    </row>
-    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="512" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -15059,9 +14535,8 @@
       <c r="W512" s="5"/>
       <c r="X512" s="5"/>
       <c r="Y512" s="5"/>
-      <c r="Z512" s="5"/>
-    </row>
-    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="513" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -15087,9 +14562,8 @@
       <c r="W513" s="5"/>
       <c r="X513" s="5"/>
       <c r="Y513" s="5"/>
-      <c r="Z513" s="5"/>
-    </row>
-    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="514" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -15115,9 +14589,8 @@
       <c r="W514" s="5"/>
       <c r="X514" s="5"/>
       <c r="Y514" s="5"/>
-      <c r="Z514" s="5"/>
-    </row>
-    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="515" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -15143,9 +14616,8 @@
       <c r="W515" s="5"/>
       <c r="X515" s="5"/>
       <c r="Y515" s="5"/>
-      <c r="Z515" s="5"/>
-    </row>
-    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="516" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -15171,9 +14643,8 @@
       <c r="W516" s="5"/>
       <c r="X516" s="5"/>
       <c r="Y516" s="5"/>
-      <c r="Z516" s="5"/>
-    </row>
-    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="517" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -15199,9 +14670,8 @@
       <c r="W517" s="5"/>
       <c r="X517" s="5"/>
       <c r="Y517" s="5"/>
-      <c r="Z517" s="5"/>
-    </row>
-    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="518" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -15227,9 +14697,8 @@
       <c r="W518" s="5"/>
       <c r="X518" s="5"/>
       <c r="Y518" s="5"/>
-      <c r="Z518" s="5"/>
-    </row>
-    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="519" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -15255,9 +14724,8 @@
       <c r="W519" s="5"/>
       <c r="X519" s="5"/>
       <c r="Y519" s="5"/>
-      <c r="Z519" s="5"/>
-    </row>
-    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="520" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -15283,9 +14751,8 @@
       <c r="W520" s="5"/>
       <c r="X520" s="5"/>
       <c r="Y520" s="5"/>
-      <c r="Z520" s="5"/>
-    </row>
-    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="521" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -15311,9 +14778,8 @@
       <c r="W521" s="5"/>
       <c r="X521" s="5"/>
       <c r="Y521" s="5"/>
-      <c r="Z521" s="5"/>
-    </row>
-    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="522" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -15339,9 +14805,8 @@
       <c r="W522" s="5"/>
       <c r="X522" s="5"/>
       <c r="Y522" s="5"/>
-      <c r="Z522" s="5"/>
-    </row>
-    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="523" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -15367,9 +14832,8 @@
       <c r="W523" s="5"/>
       <c r="X523" s="5"/>
       <c r="Y523" s="5"/>
-      <c r="Z523" s="5"/>
-    </row>
-    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="524" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -15395,9 +14859,8 @@
       <c r="W524" s="5"/>
       <c r="X524" s="5"/>
       <c r="Y524" s="5"/>
-      <c r="Z524" s="5"/>
-    </row>
-    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="525" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -15423,9 +14886,8 @@
       <c r="W525" s="5"/>
       <c r="X525" s="5"/>
       <c r="Y525" s="5"/>
-      <c r="Z525" s="5"/>
-    </row>
-    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="526" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -15451,9 +14913,8 @@
       <c r="W526" s="5"/>
       <c r="X526" s="5"/>
       <c r="Y526" s="5"/>
-      <c r="Z526" s="5"/>
-    </row>
-    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="527" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -15479,9 +14940,8 @@
       <c r="W527" s="5"/>
       <c r="X527" s="5"/>
       <c r="Y527" s="5"/>
-      <c r="Z527" s="5"/>
-    </row>
-    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="528" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -15507,9 +14967,8 @@
       <c r="W528" s="5"/>
       <c r="X528" s="5"/>
       <c r="Y528" s="5"/>
-      <c r="Z528" s="5"/>
-    </row>
-    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="529" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -15535,9 +14994,8 @@
       <c r="W529" s="5"/>
       <c r="X529" s="5"/>
       <c r="Y529" s="5"/>
-      <c r="Z529" s="5"/>
-    </row>
-    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="530" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -15563,9 +15021,8 @@
       <c r="W530" s="5"/>
       <c r="X530" s="5"/>
       <c r="Y530" s="5"/>
-      <c r="Z530" s="5"/>
-    </row>
-    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="531" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -15591,9 +15048,8 @@
       <c r="W531" s="5"/>
       <c r="X531" s="5"/>
       <c r="Y531" s="5"/>
-      <c r="Z531" s="5"/>
-    </row>
-    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="532" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -15619,9 +15075,8 @@
       <c r="W532" s="5"/>
       <c r="X532" s="5"/>
       <c r="Y532" s="5"/>
-      <c r="Z532" s="5"/>
-    </row>
-    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="533" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -15647,9 +15102,8 @@
       <c r="W533" s="5"/>
       <c r="X533" s="5"/>
       <c r="Y533" s="5"/>
-      <c r="Z533" s="5"/>
-    </row>
-    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="534" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -15675,9 +15129,8 @@
       <c r="W534" s="5"/>
       <c r="X534" s="5"/>
       <c r="Y534" s="5"/>
-      <c r="Z534" s="5"/>
-    </row>
-    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="535" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -15703,9 +15156,8 @@
       <c r="W535" s="5"/>
       <c r="X535" s="5"/>
       <c r="Y535" s="5"/>
-      <c r="Z535" s="5"/>
-    </row>
-    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="536" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -15731,9 +15183,8 @@
       <c r="W536" s="5"/>
       <c r="X536" s="5"/>
       <c r="Y536" s="5"/>
-      <c r="Z536" s="5"/>
-    </row>
-    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="537" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -15759,9 +15210,8 @@
       <c r="W537" s="5"/>
       <c r="X537" s="5"/>
       <c r="Y537" s="5"/>
-      <c r="Z537" s="5"/>
-    </row>
-    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="538" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -15787,9 +15237,8 @@
       <c r="W538" s="5"/>
       <c r="X538" s="5"/>
       <c r="Y538" s="5"/>
-      <c r="Z538" s="5"/>
-    </row>
-    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="539" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -15815,9 +15264,8 @@
       <c r="W539" s="5"/>
       <c r="X539" s="5"/>
       <c r="Y539" s="5"/>
-      <c r="Z539" s="5"/>
-    </row>
-    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="540" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -15843,9 +15291,8 @@
       <c r="W540" s="5"/>
       <c r="X540" s="5"/>
       <c r="Y540" s="5"/>
-      <c r="Z540" s="5"/>
-    </row>
-    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="541" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -15871,9 +15318,8 @@
       <c r="W541" s="5"/>
       <c r="X541" s="5"/>
       <c r="Y541" s="5"/>
-      <c r="Z541" s="5"/>
-    </row>
-    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="542" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -15899,9 +15345,8 @@
       <c r="W542" s="5"/>
       <c r="X542" s="5"/>
       <c r="Y542" s="5"/>
-      <c r="Z542" s="5"/>
-    </row>
-    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="543" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -15927,9 +15372,8 @@
       <c r="W543" s="5"/>
       <c r="X543" s="5"/>
       <c r="Y543" s="5"/>
-      <c r="Z543" s="5"/>
-    </row>
-    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="544" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -15955,9 +15399,8 @@
       <c r="W544" s="5"/>
       <c r="X544" s="5"/>
       <c r="Y544" s="5"/>
-      <c r="Z544" s="5"/>
-    </row>
-    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="545" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -15983,9 +15426,8 @@
       <c r="W545" s="5"/>
       <c r="X545" s="5"/>
       <c r="Y545" s="5"/>
-      <c r="Z545" s="5"/>
-    </row>
-    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="546" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -16011,9 +15453,8 @@
       <c r="W546" s="5"/>
       <c r="X546" s="5"/>
       <c r="Y546" s="5"/>
-      <c r="Z546" s="5"/>
-    </row>
-    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="547" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -16039,9 +15480,8 @@
       <c r="W547" s="5"/>
       <c r="X547" s="5"/>
       <c r="Y547" s="5"/>
-      <c r="Z547" s="5"/>
-    </row>
-    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="548" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -16067,9 +15507,8 @@
       <c r="W548" s="5"/>
       <c r="X548" s="5"/>
       <c r="Y548" s="5"/>
-      <c r="Z548" s="5"/>
-    </row>
-    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="549" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -16095,9 +15534,8 @@
       <c r="W549" s="5"/>
       <c r="X549" s="5"/>
       <c r="Y549" s="5"/>
-      <c r="Z549" s="5"/>
-    </row>
-    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="550" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -16123,9 +15561,8 @@
       <c r="W550" s="5"/>
       <c r="X550" s="5"/>
       <c r="Y550" s="5"/>
-      <c r="Z550" s="5"/>
-    </row>
-    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="551" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -16151,9 +15588,8 @@
       <c r="W551" s="5"/>
       <c r="X551" s="5"/>
       <c r="Y551" s="5"/>
-      <c r="Z551" s="5"/>
-    </row>
-    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="552" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -16179,9 +15615,8 @@
       <c r="W552" s="5"/>
       <c r="X552" s="5"/>
       <c r="Y552" s="5"/>
-      <c r="Z552" s="5"/>
-    </row>
-    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="553" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -16207,9 +15642,8 @@
       <c r="W553" s="5"/>
       <c r="X553" s="5"/>
       <c r="Y553" s="5"/>
-      <c r="Z553" s="5"/>
-    </row>
-    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="554" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -16235,9 +15669,8 @@
       <c r="W554" s="5"/>
       <c r="X554" s="5"/>
       <c r="Y554" s="5"/>
-      <c r="Z554" s="5"/>
-    </row>
-    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="555" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -16263,9 +15696,8 @@
       <c r="W555" s="5"/>
       <c r="X555" s="5"/>
       <c r="Y555" s="5"/>
-      <c r="Z555" s="5"/>
-    </row>
-    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="556" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -16291,9 +15723,8 @@
       <c r="W556" s="5"/>
       <c r="X556" s="5"/>
       <c r="Y556" s="5"/>
-      <c r="Z556" s="5"/>
-    </row>
-    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="557" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -16319,9 +15750,8 @@
       <c r="W557" s="5"/>
       <c r="X557" s="5"/>
       <c r="Y557" s="5"/>
-      <c r="Z557" s="5"/>
-    </row>
-    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="558" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -16347,9 +15777,8 @@
       <c r="W558" s="5"/>
       <c r="X558" s="5"/>
       <c r="Y558" s="5"/>
-      <c r="Z558" s="5"/>
-    </row>
-    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="559" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -16375,9 +15804,8 @@
       <c r="W559" s="5"/>
       <c r="X559" s="5"/>
       <c r="Y559" s="5"/>
-      <c r="Z559" s="5"/>
-    </row>
-    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="560" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -16403,9 +15831,8 @@
       <c r="W560" s="5"/>
       <c r="X560" s="5"/>
       <c r="Y560" s="5"/>
-      <c r="Z560" s="5"/>
-    </row>
-    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="561" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -16431,9 +15858,8 @@
       <c r="W561" s="5"/>
       <c r="X561" s="5"/>
       <c r="Y561" s="5"/>
-      <c r="Z561" s="5"/>
-    </row>
-    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="562" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -16459,9 +15885,8 @@
       <c r="W562" s="5"/>
       <c r="X562" s="5"/>
       <c r="Y562" s="5"/>
-      <c r="Z562" s="5"/>
-    </row>
-    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="563" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -16487,9 +15912,8 @@
       <c r="W563" s="5"/>
       <c r="X563" s="5"/>
       <c r="Y563" s="5"/>
-      <c r="Z563" s="5"/>
-    </row>
-    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="564" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -16515,9 +15939,8 @@
       <c r="W564" s="5"/>
       <c r="X564" s="5"/>
       <c r="Y564" s="5"/>
-      <c r="Z564" s="5"/>
-    </row>
-    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -16543,9 +15966,8 @@
       <c r="W565" s="5"/>
       <c r="X565" s="5"/>
       <c r="Y565" s="5"/>
-      <c r="Z565" s="5"/>
-    </row>
-    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="566" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -16571,9 +15993,8 @@
       <c r="W566" s="5"/>
       <c r="X566" s="5"/>
       <c r="Y566" s="5"/>
-      <c r="Z566" s="5"/>
-    </row>
-    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="567" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -16599,9 +16020,8 @@
       <c r="W567" s="5"/>
       <c r="X567" s="5"/>
       <c r="Y567" s="5"/>
-      <c r="Z567" s="5"/>
-    </row>
-    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="568" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -16627,9 +16047,8 @@
       <c r="W568" s="5"/>
       <c r="X568" s="5"/>
       <c r="Y568" s="5"/>
-      <c r="Z568" s="5"/>
-    </row>
-    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="569" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -16655,9 +16074,8 @@
       <c r="W569" s="5"/>
       <c r="X569" s="5"/>
       <c r="Y569" s="5"/>
-      <c r="Z569" s="5"/>
-    </row>
-    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="570" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -16683,9 +16101,8 @@
       <c r="W570" s="5"/>
       <c r="X570" s="5"/>
       <c r="Y570" s="5"/>
-      <c r="Z570" s="5"/>
-    </row>
-    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="571" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -16711,9 +16128,8 @@
       <c r="W571" s="5"/>
       <c r="X571" s="5"/>
       <c r="Y571" s="5"/>
-      <c r="Z571" s="5"/>
-    </row>
-    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="572" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -16739,9 +16155,8 @@
       <c r="W572" s="5"/>
       <c r="X572" s="5"/>
       <c r="Y572" s="5"/>
-      <c r="Z572" s="5"/>
-    </row>
-    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="573" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -16767,9 +16182,8 @@
       <c r="W573" s="5"/>
       <c r="X573" s="5"/>
       <c r="Y573" s="5"/>
-      <c r="Z573" s="5"/>
-    </row>
-    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="574" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -16795,9 +16209,8 @@
       <c r="W574" s="5"/>
       <c r="X574" s="5"/>
       <c r="Y574" s="5"/>
-      <c r="Z574" s="5"/>
-    </row>
-    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="575" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -16823,9 +16236,8 @@
       <c r="W575" s="5"/>
       <c r="X575" s="5"/>
       <c r="Y575" s="5"/>
-      <c r="Z575" s="5"/>
-    </row>
-    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="576" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -16851,9 +16263,8 @@
       <c r="W576" s="5"/>
       <c r="X576" s="5"/>
       <c r="Y576" s="5"/>
-      <c r="Z576" s="5"/>
-    </row>
-    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="577" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -16879,9 +16290,8 @@
       <c r="W577" s="5"/>
       <c r="X577" s="5"/>
       <c r="Y577" s="5"/>
-      <c r="Z577" s="5"/>
-    </row>
-    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -16907,9 +16317,8 @@
       <c r="W578" s="5"/>
       <c r="X578" s="5"/>
       <c r="Y578" s="5"/>
-      <c r="Z578" s="5"/>
-    </row>
-    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -16935,9 +16344,8 @@
       <c r="W579" s="5"/>
       <c r="X579" s="5"/>
       <c r="Y579" s="5"/>
-      <c r="Z579" s="5"/>
-    </row>
-    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -16963,9 +16371,8 @@
       <c r="W580" s="5"/>
       <c r="X580" s="5"/>
       <c r="Y580" s="5"/>
-      <c r="Z580" s="5"/>
-    </row>
-    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="581" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -16991,9 +16398,8 @@
       <c r="W581" s="5"/>
       <c r="X581" s="5"/>
       <c r="Y581" s="5"/>
-      <c r="Z581" s="5"/>
-    </row>
-    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="582" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -17019,9 +16425,8 @@
       <c r="W582" s="5"/>
       <c r="X582" s="5"/>
       <c r="Y582" s="5"/>
-      <c r="Z582" s="5"/>
-    </row>
-    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="583" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -17047,9 +16452,8 @@
       <c r="W583" s="5"/>
       <c r="X583" s="5"/>
       <c r="Y583" s="5"/>
-      <c r="Z583" s="5"/>
-    </row>
-    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="584" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -17075,9 +16479,8 @@
       <c r="W584" s="5"/>
       <c r="X584" s="5"/>
       <c r="Y584" s="5"/>
-      <c r="Z584" s="5"/>
-    </row>
-    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="585" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -17103,9 +16506,8 @@
       <c r="W585" s="5"/>
       <c r="X585" s="5"/>
       <c r="Y585" s="5"/>
-      <c r="Z585" s="5"/>
-    </row>
-    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="586" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -17131,9 +16533,8 @@
       <c r="W586" s="5"/>
       <c r="X586" s="5"/>
       <c r="Y586" s="5"/>
-      <c r="Z586" s="5"/>
-    </row>
-    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="587" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -17159,9 +16560,8 @@
       <c r="W587" s="5"/>
       <c r="X587" s="5"/>
       <c r="Y587" s="5"/>
-      <c r="Z587" s="5"/>
-    </row>
-    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="588" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -17187,9 +16587,8 @@
       <c r="W588" s="5"/>
       <c r="X588" s="5"/>
       <c r="Y588" s="5"/>
-      <c r="Z588" s="5"/>
-    </row>
-    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -17215,9 +16614,8 @@
       <c r="W589" s="5"/>
       <c r="X589" s="5"/>
       <c r="Y589" s="5"/>
-      <c r="Z589" s="5"/>
-    </row>
-    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="590" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -17243,9 +16641,8 @@
       <c r="W590" s="5"/>
       <c r="X590" s="5"/>
       <c r="Y590" s="5"/>
-      <c r="Z590" s="5"/>
-    </row>
-    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="591" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -17271,9 +16668,8 @@
       <c r="W591" s="5"/>
       <c r="X591" s="5"/>
       <c r="Y591" s="5"/>
-      <c r="Z591" s="5"/>
-    </row>
-    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="592" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -17299,9 +16695,8 @@
       <c r="W592" s="5"/>
       <c r="X592" s="5"/>
       <c r="Y592" s="5"/>
-      <c r="Z592" s="5"/>
-    </row>
-    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="593" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -17327,9 +16722,8 @@
       <c r="W593" s="5"/>
       <c r="X593" s="5"/>
       <c r="Y593" s="5"/>
-      <c r="Z593" s="5"/>
-    </row>
-    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -17355,9 +16749,8 @@
       <c r="W594" s="5"/>
       <c r="X594" s="5"/>
       <c r="Y594" s="5"/>
-      <c r="Z594" s="5"/>
-    </row>
-    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -17383,9 +16776,8 @@
       <c r="W595" s="5"/>
       <c r="X595" s="5"/>
       <c r="Y595" s="5"/>
-      <c r="Z595" s="5"/>
-    </row>
-    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="596" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -17411,9 +16803,8 @@
       <c r="W596" s="5"/>
       <c r="X596" s="5"/>
       <c r="Y596" s="5"/>
-      <c r="Z596" s="5"/>
-    </row>
-    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="597" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -17439,9 +16830,8 @@
       <c r="W597" s="5"/>
       <c r="X597" s="5"/>
       <c r="Y597" s="5"/>
-      <c r="Z597" s="5"/>
-    </row>
-    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="598" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -17467,9 +16857,8 @@
       <c r="W598" s="5"/>
       <c r="X598" s="5"/>
       <c r="Y598" s="5"/>
-      <c r="Z598" s="5"/>
-    </row>
-    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="599" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -17495,9 +16884,8 @@
       <c r="W599" s="5"/>
       <c r="X599" s="5"/>
       <c r="Y599" s="5"/>
-      <c r="Z599" s="5"/>
-    </row>
-    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="600" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -17523,9 +16911,8 @@
       <c r="W600" s="5"/>
       <c r="X600" s="5"/>
       <c r="Y600" s="5"/>
-      <c r="Z600" s="5"/>
-    </row>
-    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="601" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -17551,9 +16938,8 @@
       <c r="W601" s="5"/>
       <c r="X601" s="5"/>
       <c r="Y601" s="5"/>
-      <c r="Z601" s="5"/>
-    </row>
-    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="602" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -17579,9 +16965,8 @@
       <c r="W602" s="5"/>
       <c r="X602" s="5"/>
       <c r="Y602" s="5"/>
-      <c r="Z602" s="5"/>
-    </row>
-    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="603" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -17607,9 +16992,8 @@
       <c r="W603" s="5"/>
       <c r="X603" s="5"/>
       <c r="Y603" s="5"/>
-      <c r="Z603" s="5"/>
-    </row>
-    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -17635,9 +17019,8 @@
       <c r="W604" s="5"/>
       <c r="X604" s="5"/>
       <c r="Y604" s="5"/>
-      <c r="Z604" s="5"/>
-    </row>
-    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="605" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -17663,9 +17046,8 @@
       <c r="W605" s="5"/>
       <c r="X605" s="5"/>
       <c r="Y605" s="5"/>
-      <c r="Z605" s="5"/>
-    </row>
-    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="606" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -17691,9 +17073,8 @@
       <c r="W606" s="5"/>
       <c r="X606" s="5"/>
       <c r="Y606" s="5"/>
-      <c r="Z606" s="5"/>
-    </row>
-    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="607" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -17719,9 +17100,8 @@
       <c r="W607" s="5"/>
       <c r="X607" s="5"/>
       <c r="Y607" s="5"/>
-      <c r="Z607" s="5"/>
-    </row>
-    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="608" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -17747,9 +17127,8 @@
       <c r="W608" s="5"/>
       <c r="X608" s="5"/>
       <c r="Y608" s="5"/>
-      <c r="Z608" s="5"/>
-    </row>
-    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="609" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -17775,9 +17154,8 @@
       <c r="W609" s="5"/>
       <c r="X609" s="5"/>
       <c r="Y609" s="5"/>
-      <c r="Z609" s="5"/>
-    </row>
-    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="610" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -17803,9 +17181,8 @@
       <c r="W610" s="5"/>
       <c r="X610" s="5"/>
       <c r="Y610" s="5"/>
-      <c r="Z610" s="5"/>
-    </row>
-    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -17831,9 +17208,8 @@
       <c r="W611" s="5"/>
       <c r="X611" s="5"/>
       <c r="Y611" s="5"/>
-      <c r="Z611" s="5"/>
-    </row>
-    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="612" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -17859,9 +17235,8 @@
       <c r="W612" s="5"/>
       <c r="X612" s="5"/>
       <c r="Y612" s="5"/>
-      <c r="Z612" s="5"/>
-    </row>
-    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="613" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -17887,9 +17262,8 @@
       <c r="W613" s="5"/>
       <c r="X613" s="5"/>
       <c r="Y613" s="5"/>
-      <c r="Z613" s="5"/>
-    </row>
-    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -17915,9 +17289,8 @@
       <c r="W614" s="5"/>
       <c r="X614" s="5"/>
       <c r="Y614" s="5"/>
-      <c r="Z614" s="5"/>
-    </row>
-    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="615" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -17943,9 +17316,8 @@
       <c r="W615" s="5"/>
       <c r="X615" s="5"/>
       <c r="Y615" s="5"/>
-      <c r="Z615" s="5"/>
-    </row>
-    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="616" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -17971,9 +17343,8 @@
       <c r="W616" s="5"/>
       <c r="X616" s="5"/>
       <c r="Y616" s="5"/>
-      <c r="Z616" s="5"/>
-    </row>
-    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="617" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -17999,9 +17370,8 @@
       <c r="W617" s="5"/>
       <c r="X617" s="5"/>
       <c r="Y617" s="5"/>
-      <c r="Z617" s="5"/>
-    </row>
-    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -18027,9 +17397,8 @@
       <c r="W618" s="5"/>
       <c r="X618" s="5"/>
       <c r="Y618" s="5"/>
-      <c r="Z618" s="5"/>
-    </row>
-    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="619" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -18055,9 +17424,8 @@
       <c r="W619" s="5"/>
       <c r="X619" s="5"/>
       <c r="Y619" s="5"/>
-      <c r="Z619" s="5"/>
-    </row>
-    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="620" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -18083,9 +17451,8 @@
       <c r="W620" s="5"/>
       <c r="X620" s="5"/>
       <c r="Y620" s="5"/>
-      <c r="Z620" s="5"/>
-    </row>
-    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="621" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -18111,9 +17478,8 @@
       <c r="W621" s="5"/>
       <c r="X621" s="5"/>
       <c r="Y621" s="5"/>
-      <c r="Z621" s="5"/>
-    </row>
-    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="622" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -18139,9 +17505,8 @@
       <c r="W622" s="5"/>
       <c r="X622" s="5"/>
       <c r="Y622" s="5"/>
-      <c r="Z622" s="5"/>
-    </row>
-    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="623" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -18167,9 +17532,8 @@
       <c r="W623" s="5"/>
       <c r="X623" s="5"/>
       <c r="Y623" s="5"/>
-      <c r="Z623" s="5"/>
-    </row>
-    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="624" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -18195,9 +17559,8 @@
       <c r="W624" s="5"/>
       <c r="X624" s="5"/>
       <c r="Y624" s="5"/>
-      <c r="Z624" s="5"/>
-    </row>
-    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="625" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -18223,9 +17586,8 @@
       <c r="W625" s="5"/>
       <c r="X625" s="5"/>
       <c r="Y625" s="5"/>
-      <c r="Z625" s="5"/>
-    </row>
-    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="626" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -18251,9 +17613,8 @@
       <c r="W626" s="5"/>
       <c r="X626" s="5"/>
       <c r="Y626" s="5"/>
-      <c r="Z626" s="5"/>
-    </row>
-    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="627" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -18279,9 +17640,8 @@
       <c r="W627" s="5"/>
       <c r="X627" s="5"/>
       <c r="Y627" s="5"/>
-      <c r="Z627" s="5"/>
-    </row>
-    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="628" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -18307,9 +17667,8 @@
       <c r="W628" s="5"/>
       <c r="X628" s="5"/>
       <c r="Y628" s="5"/>
-      <c r="Z628" s="5"/>
-    </row>
-    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="629" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -18335,9 +17694,8 @@
       <c r="W629" s="5"/>
       <c r="X629" s="5"/>
       <c r="Y629" s="5"/>
-      <c r="Z629" s="5"/>
-    </row>
-    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="630" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -18363,9 +17721,8 @@
       <c r="W630" s="5"/>
       <c r="X630" s="5"/>
       <c r="Y630" s="5"/>
-      <c r="Z630" s="5"/>
-    </row>
-    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="631" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -18391,9 +17748,8 @@
       <c r="W631" s="5"/>
       <c r="X631" s="5"/>
       <c r="Y631" s="5"/>
-      <c r="Z631" s="5"/>
-    </row>
-    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="632" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -18419,9 +17775,8 @@
       <c r="W632" s="5"/>
       <c r="X632" s="5"/>
       <c r="Y632" s="5"/>
-      <c r="Z632" s="5"/>
-    </row>
-    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="633" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -18447,9 +17802,8 @@
       <c r="W633" s="5"/>
       <c r="X633" s="5"/>
       <c r="Y633" s="5"/>
-      <c r="Z633" s="5"/>
-    </row>
-    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="634" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -18475,9 +17829,8 @@
       <c r="W634" s="5"/>
       <c r="X634" s="5"/>
       <c r="Y634" s="5"/>
-      <c r="Z634" s="5"/>
-    </row>
-    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="635" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -18503,9 +17856,8 @@
       <c r="W635" s="5"/>
       <c r="X635" s="5"/>
       <c r="Y635" s="5"/>
-      <c r="Z635" s="5"/>
-    </row>
-    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="636" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -18531,9 +17883,8 @@
       <c r="W636" s="5"/>
       <c r="X636" s="5"/>
       <c r="Y636" s="5"/>
-      <c r="Z636" s="5"/>
-    </row>
-    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="637" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -18559,9 +17910,8 @@
       <c r="W637" s="5"/>
       <c r="X637" s="5"/>
       <c r="Y637" s="5"/>
-      <c r="Z637" s="5"/>
-    </row>
-    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="638" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -18587,9 +17937,8 @@
       <c r="W638" s="5"/>
       <c r="X638" s="5"/>
       <c r="Y638" s="5"/>
-      <c r="Z638" s="5"/>
-    </row>
-    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="639" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -18615,9 +17964,8 @@
       <c r="W639" s="5"/>
       <c r="X639" s="5"/>
       <c r="Y639" s="5"/>
-      <c r="Z639" s="5"/>
-    </row>
-    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="640" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -18643,9 +17991,8 @@
       <c r="W640" s="5"/>
       <c r="X640" s="5"/>
       <c r="Y640" s="5"/>
-      <c r="Z640" s="5"/>
-    </row>
-    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="641" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -18671,9 +18018,8 @@
       <c r="W641" s="5"/>
       <c r="X641" s="5"/>
       <c r="Y641" s="5"/>
-      <c r="Z641" s="5"/>
-    </row>
-    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="642" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -18699,9 +18045,8 @@
       <c r="W642" s="5"/>
       <c r="X642" s="5"/>
       <c r="Y642" s="5"/>
-      <c r="Z642" s="5"/>
-    </row>
-    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="643" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -18727,9 +18072,8 @@
       <c r="W643" s="5"/>
       <c r="X643" s="5"/>
       <c r="Y643" s="5"/>
-      <c r="Z643" s="5"/>
-    </row>
-    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="644" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -18755,9 +18099,8 @@
       <c r="W644" s="5"/>
       <c r="X644" s="5"/>
       <c r="Y644" s="5"/>
-      <c r="Z644" s="5"/>
-    </row>
-    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="645" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -18783,9 +18126,8 @@
       <c r="W645" s="5"/>
       <c r="X645" s="5"/>
       <c r="Y645" s="5"/>
-      <c r="Z645" s="5"/>
-    </row>
-    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="646" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -18811,9 +18153,8 @@
       <c r="W646" s="5"/>
       <c r="X646" s="5"/>
       <c r="Y646" s="5"/>
-      <c r="Z646" s="5"/>
-    </row>
-    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="647" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -18839,9 +18180,8 @@
       <c r="W647" s="5"/>
       <c r="X647" s="5"/>
       <c r="Y647" s="5"/>
-      <c r="Z647" s="5"/>
-    </row>
-    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="648" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -18867,9 +18207,8 @@
       <c r="W648" s="5"/>
       <c r="X648" s="5"/>
       <c r="Y648" s="5"/>
-      <c r="Z648" s="5"/>
-    </row>
-    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="649" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -18895,9 +18234,8 @@
       <c r="W649" s="5"/>
       <c r="X649" s="5"/>
       <c r="Y649" s="5"/>
-      <c r="Z649" s="5"/>
-    </row>
-    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="650" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -18923,9 +18261,8 @@
       <c r="W650" s="5"/>
       <c r="X650" s="5"/>
       <c r="Y650" s="5"/>
-      <c r="Z650" s="5"/>
-    </row>
-    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="651" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -18951,9 +18288,8 @@
       <c r="W651" s="5"/>
       <c r="X651" s="5"/>
       <c r="Y651" s="5"/>
-      <c r="Z651" s="5"/>
-    </row>
-    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="652" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -18979,9 +18315,8 @@
       <c r="W652" s="5"/>
       <c r="X652" s="5"/>
       <c r="Y652" s="5"/>
-      <c r="Z652" s="5"/>
-    </row>
-    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="653" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -19007,9 +18342,8 @@
       <c r="W653" s="5"/>
       <c r="X653" s="5"/>
       <c r="Y653" s="5"/>
-      <c r="Z653" s="5"/>
-    </row>
-    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="654" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -19035,9 +18369,8 @@
       <c r="W654" s="5"/>
       <c r="X654" s="5"/>
       <c r="Y654" s="5"/>
-      <c r="Z654" s="5"/>
-    </row>
-    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="655" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -19063,9 +18396,8 @@
       <c r="W655" s="5"/>
       <c r="X655" s="5"/>
       <c r="Y655" s="5"/>
-      <c r="Z655" s="5"/>
-    </row>
-    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="656" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -19091,9 +18423,8 @@
       <c r="W656" s="5"/>
       <c r="X656" s="5"/>
       <c r="Y656" s="5"/>
-      <c r="Z656" s="5"/>
-    </row>
-    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="657" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -19119,9 +18450,8 @@
       <c r="W657" s="5"/>
       <c r="X657" s="5"/>
       <c r="Y657" s="5"/>
-      <c r="Z657" s="5"/>
-    </row>
-    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="658" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -19147,9 +18477,8 @@
       <c r="W658" s="5"/>
       <c r="X658" s="5"/>
       <c r="Y658" s="5"/>
-      <c r="Z658" s="5"/>
-    </row>
-    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="659" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -19175,9 +18504,8 @@
       <c r="W659" s="5"/>
       <c r="X659" s="5"/>
       <c r="Y659" s="5"/>
-      <c r="Z659" s="5"/>
-    </row>
-    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="660" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -19203,9 +18531,8 @@
       <c r="W660" s="5"/>
       <c r="X660" s="5"/>
       <c r="Y660" s="5"/>
-      <c r="Z660" s="5"/>
-    </row>
-    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="661" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -19231,9 +18558,8 @@
       <c r="W661" s="5"/>
       <c r="X661" s="5"/>
       <c r="Y661" s="5"/>
-      <c r="Z661" s="5"/>
-    </row>
-    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="662" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -19259,9 +18585,8 @@
       <c r="W662" s="5"/>
       <c r="X662" s="5"/>
       <c r="Y662" s="5"/>
-      <c r="Z662" s="5"/>
-    </row>
-    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="663" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -19287,9 +18612,8 @@
       <c r="W663" s="5"/>
       <c r="X663" s="5"/>
       <c r="Y663" s="5"/>
-      <c r="Z663" s="5"/>
-    </row>
-    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="664" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -19315,9 +18639,8 @@
       <c r="W664" s="5"/>
       <c r="X664" s="5"/>
       <c r="Y664" s="5"/>
-      <c r="Z664" s="5"/>
-    </row>
-    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="665" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -19343,9 +18666,8 @@
       <c r="W665" s="5"/>
       <c r="X665" s="5"/>
       <c r="Y665" s="5"/>
-      <c r="Z665" s="5"/>
-    </row>
-    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="666" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -19371,9 +18693,8 @@
       <c r="W666" s="5"/>
       <c r="X666" s="5"/>
       <c r="Y666" s="5"/>
-      <c r="Z666" s="5"/>
-    </row>
-    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="667" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -19399,9 +18720,8 @@
       <c r="W667" s="5"/>
       <c r="X667" s="5"/>
       <c r="Y667" s="5"/>
-      <c r="Z667" s="5"/>
-    </row>
-    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="668" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -19427,9 +18747,8 @@
       <c r="W668" s="5"/>
       <c r="X668" s="5"/>
       <c r="Y668" s="5"/>
-      <c r="Z668" s="5"/>
-    </row>
-    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="669" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -19455,9 +18774,8 @@
       <c r="W669" s="5"/>
       <c r="X669" s="5"/>
       <c r="Y669" s="5"/>
-      <c r="Z669" s="5"/>
-    </row>
-    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="670" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -19483,9 +18801,8 @@
       <c r="W670" s="5"/>
       <c r="X670" s="5"/>
       <c r="Y670" s="5"/>
-      <c r="Z670" s="5"/>
-    </row>
-    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="671" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -19511,9 +18828,8 @@
       <c r="W671" s="5"/>
       <c r="X671" s="5"/>
       <c r="Y671" s="5"/>
-      <c r="Z671" s="5"/>
-    </row>
-    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="672" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -19539,9 +18855,8 @@
       <c r="W672" s="5"/>
       <c r="X672" s="5"/>
       <c r="Y672" s="5"/>
-      <c r="Z672" s="5"/>
-    </row>
-    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="673" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -19567,9 +18882,8 @@
       <c r="W673" s="5"/>
       <c r="X673" s="5"/>
       <c r="Y673" s="5"/>
-      <c r="Z673" s="5"/>
-    </row>
-    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="674" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -19595,9 +18909,8 @@
       <c r="W674" s="5"/>
       <c r="X674" s="5"/>
       <c r="Y674" s="5"/>
-      <c r="Z674" s="5"/>
-    </row>
-    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="675" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -19623,9 +18936,8 @@
       <c r="W675" s="5"/>
       <c r="X675" s="5"/>
       <c r="Y675" s="5"/>
-      <c r="Z675" s="5"/>
-    </row>
-    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="676" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -19651,9 +18963,8 @@
       <c r="W676" s="5"/>
       <c r="X676" s="5"/>
       <c r="Y676" s="5"/>
-      <c r="Z676" s="5"/>
-    </row>
-    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="677" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -19679,9 +18990,8 @@
       <c r="W677" s="5"/>
       <c r="X677" s="5"/>
       <c r="Y677" s="5"/>
-      <c r="Z677" s="5"/>
-    </row>
-    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="678" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -19707,9 +19017,8 @@
       <c r="W678" s="5"/>
       <c r="X678" s="5"/>
       <c r="Y678" s="5"/>
-      <c r="Z678" s="5"/>
-    </row>
-    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="679" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -19735,9 +19044,8 @@
       <c r="W679" s="5"/>
       <c r="X679" s="5"/>
       <c r="Y679" s="5"/>
-      <c r="Z679" s="5"/>
-    </row>
-    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="680" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -19763,9 +19071,8 @@
       <c r="W680" s="5"/>
       <c r="X680" s="5"/>
       <c r="Y680" s="5"/>
-      <c r="Z680" s="5"/>
-    </row>
-    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="681" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -19791,9 +19098,8 @@
       <c r="W681" s="5"/>
       <c r="X681" s="5"/>
       <c r="Y681" s="5"/>
-      <c r="Z681" s="5"/>
-    </row>
-    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="682" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -19819,9 +19125,8 @@
       <c r="W682" s="5"/>
       <c r="X682" s="5"/>
       <c r="Y682" s="5"/>
-      <c r="Z682" s="5"/>
-    </row>
-    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="683" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -19847,9 +19152,8 @@
       <c r="W683" s="5"/>
       <c r="X683" s="5"/>
       <c r="Y683" s="5"/>
-      <c r="Z683" s="5"/>
-    </row>
-    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="684" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -19875,9 +19179,8 @@
       <c r="W684" s="5"/>
       <c r="X684" s="5"/>
       <c r="Y684" s="5"/>
-      <c r="Z684" s="5"/>
-    </row>
-    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="685" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -19903,9 +19206,8 @@
       <c r="W685" s="5"/>
       <c r="X685" s="5"/>
       <c r="Y685" s="5"/>
-      <c r="Z685" s="5"/>
-    </row>
-    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="686" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -19931,9 +19233,8 @@
       <c r="W686" s="5"/>
       <c r="X686" s="5"/>
       <c r="Y686" s="5"/>
-      <c r="Z686" s="5"/>
-    </row>
-    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="687" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -19959,9 +19260,8 @@
       <c r="W687" s="5"/>
       <c r="X687" s="5"/>
       <c r="Y687" s="5"/>
-      <c r="Z687" s="5"/>
-    </row>
-    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="688" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -19987,9 +19287,8 @@
       <c r="W688" s="5"/>
       <c r="X688" s="5"/>
       <c r="Y688" s="5"/>
-      <c r="Z688" s="5"/>
-    </row>
-    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="689" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -20015,9 +19314,8 @@
       <c r="W689" s="5"/>
       <c r="X689" s="5"/>
       <c r="Y689" s="5"/>
-      <c r="Z689" s="5"/>
-    </row>
-    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="690" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -20043,9 +19341,8 @@
       <c r="W690" s="5"/>
       <c r="X690" s="5"/>
       <c r="Y690" s="5"/>
-      <c r="Z690" s="5"/>
-    </row>
-    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="691" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -20071,9 +19368,8 @@
       <c r="W691" s="5"/>
       <c r="X691" s="5"/>
       <c r="Y691" s="5"/>
-      <c r="Z691" s="5"/>
-    </row>
-    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="692" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -20099,9 +19395,8 @@
       <c r="W692" s="5"/>
       <c r="X692" s="5"/>
       <c r="Y692" s="5"/>
-      <c r="Z692" s="5"/>
-    </row>
-    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="693" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -20127,9 +19422,8 @@
       <c r="W693" s="5"/>
       <c r="X693" s="5"/>
       <c r="Y693" s="5"/>
-      <c r="Z693" s="5"/>
-    </row>
-    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="694" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -20155,9 +19449,8 @@
       <c r="W694" s="5"/>
       <c r="X694" s="5"/>
       <c r="Y694" s="5"/>
-      <c r="Z694" s="5"/>
-    </row>
-    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="695" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -20183,9 +19476,8 @@
       <c r="W695" s="5"/>
       <c r="X695" s="5"/>
       <c r="Y695" s="5"/>
-      <c r="Z695" s="5"/>
-    </row>
-    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="696" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -20211,9 +19503,8 @@
       <c r="W696" s="5"/>
       <c r="X696" s="5"/>
       <c r="Y696" s="5"/>
-      <c r="Z696" s="5"/>
-    </row>
-    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="697" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -20239,9 +19530,8 @@
       <c r="W697" s="5"/>
       <c r="X697" s="5"/>
       <c r="Y697" s="5"/>
-      <c r="Z697" s="5"/>
-    </row>
-    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="698" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -20267,9 +19557,8 @@
       <c r="W698" s="5"/>
       <c r="X698" s="5"/>
       <c r="Y698" s="5"/>
-      <c r="Z698" s="5"/>
-    </row>
-    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="699" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -20295,9 +19584,8 @@
       <c r="W699" s="5"/>
       <c r="X699" s="5"/>
       <c r="Y699" s="5"/>
-      <c r="Z699" s="5"/>
-    </row>
-    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="700" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -20323,9 +19611,8 @@
       <c r="W700" s="5"/>
       <c r="X700" s="5"/>
       <c r="Y700" s="5"/>
-      <c r="Z700" s="5"/>
-    </row>
-    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="701" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -20351,9 +19638,8 @@
       <c r="W701" s="5"/>
       <c r="X701" s="5"/>
       <c r="Y701" s="5"/>
-      <c r="Z701" s="5"/>
-    </row>
-    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="702" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -20379,9 +19665,8 @@
       <c r="W702" s="5"/>
       <c r="X702" s="5"/>
       <c r="Y702" s="5"/>
-      <c r="Z702" s="5"/>
-    </row>
-    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="703" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -20407,9 +19692,8 @@
       <c r="W703" s="5"/>
       <c r="X703" s="5"/>
       <c r="Y703" s="5"/>
-      <c r="Z703" s="5"/>
-    </row>
-    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="704" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -20435,9 +19719,8 @@
       <c r="W704" s="5"/>
       <c r="X704" s="5"/>
       <c r="Y704" s="5"/>
-      <c r="Z704" s="5"/>
-    </row>
-    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="705" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -20463,9 +19746,8 @@
       <c r="W705" s="5"/>
       <c r="X705" s="5"/>
       <c r="Y705" s="5"/>
-      <c r="Z705" s="5"/>
-    </row>
-    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="706" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -20491,9 +19773,8 @@
       <c r="W706" s="5"/>
       <c r="X706" s="5"/>
       <c r="Y706" s="5"/>
-      <c r="Z706" s="5"/>
-    </row>
-    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="707" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -20519,9 +19800,8 @@
       <c r="W707" s="5"/>
       <c r="X707" s="5"/>
       <c r="Y707" s="5"/>
-      <c r="Z707" s="5"/>
-    </row>
-    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="708" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -20547,9 +19827,8 @@
       <c r="W708" s="5"/>
       <c r="X708" s="5"/>
       <c r="Y708" s="5"/>
-      <c r="Z708" s="5"/>
-    </row>
-    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="709" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -20575,9 +19854,8 @@
       <c r="W709" s="5"/>
       <c r="X709" s="5"/>
       <c r="Y709" s="5"/>
-      <c r="Z709" s="5"/>
-    </row>
-    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="710" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -20603,9 +19881,8 @@
       <c r="W710" s="5"/>
       <c r="X710" s="5"/>
       <c r="Y710" s="5"/>
-      <c r="Z710" s="5"/>
-    </row>
-    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="711" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -20631,9 +19908,8 @@
       <c r="W711" s="5"/>
       <c r="X711" s="5"/>
       <c r="Y711" s="5"/>
-      <c r="Z711" s="5"/>
-    </row>
-    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="712" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -20659,9 +19935,8 @@
       <c r="W712" s="5"/>
       <c r="X712" s="5"/>
       <c r="Y712" s="5"/>
-      <c r="Z712" s="5"/>
-    </row>
-    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="713" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -20687,9 +19962,8 @@
       <c r="W713" s="5"/>
       <c r="X713" s="5"/>
       <c r="Y713" s="5"/>
-      <c r="Z713" s="5"/>
-    </row>
-    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="714" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -20715,9 +19989,8 @@
       <c r="W714" s="5"/>
       <c r="X714" s="5"/>
       <c r="Y714" s="5"/>
-      <c r="Z714" s="5"/>
-    </row>
-    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="715" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -20743,9 +20016,8 @@
       <c r="W715" s="5"/>
       <c r="X715" s="5"/>
       <c r="Y715" s="5"/>
-      <c r="Z715" s="5"/>
-    </row>
-    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="716" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -20771,9 +20043,8 @@
       <c r="W716" s="5"/>
       <c r="X716" s="5"/>
       <c r="Y716" s="5"/>
-      <c r="Z716" s="5"/>
-    </row>
-    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="717" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -20799,9 +20070,8 @@
       <c r="W717" s="5"/>
       <c r="X717" s="5"/>
       <c r="Y717" s="5"/>
-      <c r="Z717" s="5"/>
-    </row>
-    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="718" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -20827,9 +20097,8 @@
       <c r="W718" s="5"/>
       <c r="X718" s="5"/>
       <c r="Y718" s="5"/>
-      <c r="Z718" s="5"/>
-    </row>
-    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="719" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -20855,9 +20124,8 @@
       <c r="W719" s="5"/>
       <c r="X719" s="5"/>
       <c r="Y719" s="5"/>
-      <c r="Z719" s="5"/>
-    </row>
-    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="720" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -20883,9 +20151,8 @@
       <c r="W720" s="5"/>
       <c r="X720" s="5"/>
       <c r="Y720" s="5"/>
-      <c r="Z720" s="5"/>
-    </row>
-    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="721" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -20911,9 +20178,8 @@
       <c r="W721" s="5"/>
       <c r="X721" s="5"/>
       <c r="Y721" s="5"/>
-      <c r="Z721" s="5"/>
-    </row>
-    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="722" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -20939,9 +20205,8 @@
       <c r="W722" s="5"/>
       <c r="X722" s="5"/>
       <c r="Y722" s="5"/>
-      <c r="Z722" s="5"/>
-    </row>
-    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="723" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -20967,11 +20232,10 @@
       <c r="W723" s="5"/>
       <c r="X723" s="5"/>
       <c r="Y723" s="5"/>
-      <c r="Z723" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
